--- a/Grid_5x5/Solutions/Solution_NDP_S073/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S073/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
@@ -2700,7 +2700,7 @@
         <v>202</v>
       </c>
       <c r="C42" s="39">
-        <v>0.98945133928571372</v>
+        <v>0.98945133928571394</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>42</v>
@@ -2720,7 +2720,7 @@
         <v>204</v>
       </c>
       <c r="C43" s="40">
-        <v>1.9938714285714294</v>
+        <v>1.993871428571429</v>
       </c>
       <c r="D43" s="67" t="s">
         <v>42</v>
@@ -8613,7 +8613,7 @@
         <v>52.707000000000001</v>
       </c>
       <c r="M20" s="72">
-        <v>16.217999999999996</v>
+        <v>16.218000000000004</v>
       </c>
       <c r="N20" s="72">
         <v>60.981999999999999</v>
@@ -10031,7 +10031,7 @@
         <v>70</v>
       </c>
       <c r="K54" s="72">
-        <v>19.740000000000002</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="L54" s="72">
         <v>0</v>
@@ -10040,7 +10040,7 @@
         <v>0</v>
       </c>
       <c r="N54" s="72">
-        <v>19.740000000000002</v>
+        <v>19.739999999999998</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -10078,13 +10078,13 @@
         <v>12.054000000000002</v>
       </c>
       <c r="L55" s="72">
-        <v>18.731999999999999</v>
+        <v>18.731999999999996</v>
       </c>
       <c r="M55" s="72">
         <v>1.008</v>
       </c>
       <c r="N55" s="72">
-        <v>30.786000000000001</v>
+        <v>30.785999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -10163,16 +10163,16 @@
         <v>70</v>
       </c>
       <c r="K57" s="72">
-        <v>31.609000000000002</v>
+        <v>31.608999999999998</v>
       </c>
       <c r="L57" s="72">
-        <v>26.570999999999998</v>
+        <v>26.571000000000009</v>
       </c>
       <c r="M57" s="72">
         <v>28.827999999999996</v>
       </c>
       <c r="N57" s="72">
-        <v>58.18</v>
+        <v>58.180000000000007</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -10210,13 +10210,13 @@
         <v>6.4529999999999994</v>
       </c>
       <c r="L58" s="72">
-        <v>33.632000000000005</v>
+        <v>33.631999999999991</v>
       </c>
       <c r="M58" s="72">
-        <v>24.548000000000002</v>
+        <v>24.547999999999998</v>
       </c>
       <c r="N58" s="72">
-        <v>40.085000000000001</v>
+        <v>40.084999999999994</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -11546,13 +11546,13 @@
         <v>6.4979999999999993</v>
       </c>
       <c r="L90" s="72">
-        <v>99.831999999999979</v>
+        <v>99.832000000000008</v>
       </c>
       <c r="M90" s="72">
-        <v>46.790999999999997</v>
+        <v>46.791000000000004</v>
       </c>
       <c r="N90" s="72">
-        <v>106.32999999999998</v>
+        <v>106.33000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -12750,13 +12750,13 @@
         <v>12.234999999999999</v>
       </c>
       <c r="L119" s="72">
-        <v>58.181000000000012</v>
+        <v>58.180999999999997</v>
       </c>
       <c r="M119" s="72">
         <v>3.0110000000000001</v>
       </c>
       <c r="N119" s="72">
-        <v>70.416000000000011</v>
+        <v>70.415999999999997</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -12794,13 +12794,13 @@
         <v>44.701999999999998</v>
       </c>
       <c r="L120" s="72">
-        <v>68.062999999999988</v>
+        <v>68.063000000000002</v>
       </c>
       <c r="M120" s="72">
         <v>2.3529999999999998</v>
       </c>
       <c r="N120" s="72">
-        <v>112.76499999999999</v>
+        <v>112.765</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -14039,7 +14039,7 @@
         <v>70</v>
       </c>
       <c r="K150" s="72">
-        <v>125.53099999999999</v>
+        <v>125.53100000000001</v>
       </c>
       <c r="L150" s="72">
         <v>0</v>
@@ -14048,7 +14048,7 @@
         <v>0</v>
       </c>
       <c r="N150" s="72">
-        <v>125.53099999999999</v>
+        <v>125.53100000000001</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
@@ -14086,13 +14086,13 @@
         <v>39.057000000000002</v>
       </c>
       <c r="L151" s="72">
-        <v>122.86200000000004</v>
+        <v>122.86199999999998</v>
       </c>
       <c r="M151" s="72">
         <v>2.669</v>
       </c>
       <c r="N151" s="72">
-        <v>161.91900000000004</v>
+        <v>161.91899999999998</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
@@ -14215,13 +14215,13 @@
         <v>70</v>
       </c>
       <c r="K154" s="72">
-        <v>22.247999999999998</v>
+        <v>22.248000000000001</v>
       </c>
       <c r="L154" s="72">
-        <v>65.126000000000005</v>
+        <v>65.125999999999991</v>
       </c>
       <c r="M154" s="72">
-        <v>29.053000000000001</v>
+        <v>29.053000000000004</v>
       </c>
       <c r="N154" s="72">
         <v>87.373999999999995</v>
@@ -15598,13 +15598,13 @@
         <v>51.248000000000005</v>
       </c>
       <c r="L187" s="72">
-        <v>65.928999999999988</v>
+        <v>65.929000000000002</v>
       </c>
       <c r="M187" s="72">
         <v>41.804000000000002</v>
       </c>
       <c r="N187" s="72">
-        <v>117.17699999999999</v>
+        <v>117.17700000000001</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
@@ -15639,10 +15639,10 @@
         <v>70</v>
       </c>
       <c r="K188" s="72">
-        <v>78.302999999999997</v>
+        <v>78.303000000000011</v>
       </c>
       <c r="L188" s="72">
-        <v>55.144000000000005</v>
+        <v>55.143999999999991</v>
       </c>
       <c r="M188" s="72">
         <v>62.033000000000001</v>
@@ -15686,13 +15686,13 @@
         <v>5.657</v>
       </c>
       <c r="L189" s="72">
-        <v>92.809999999999988</v>
+        <v>92.810000000000016</v>
       </c>
       <c r="M189" s="72">
         <v>40.637</v>
       </c>
       <c r="N189" s="72">
-        <v>98.466999999999985</v>
+        <v>98.467000000000013</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
@@ -15733,7 +15733,7 @@
         <v>77.022999999999996</v>
       </c>
       <c r="M190" s="72">
-        <v>21.443999999999999</v>
+        <v>21.444000000000003</v>
       </c>
       <c r="N190" s="72">
         <v>79.260999999999996</v>
@@ -18655,16 +18655,16 @@
         <v>70</v>
       </c>
       <c r="K259" s="72">
-        <v>78.686999999999998</v>
+        <v>78.687000000000012</v>
       </c>
       <c r="L259" s="72">
-        <v>97.992000000000033</v>
+        <v>97.991999999999962</v>
       </c>
       <c r="M259" s="72">
-        <v>173.73200000000003</v>
+        <v>173.732</v>
       </c>
       <c r="N259" s="72">
-        <v>176.67900000000003</v>
+        <v>176.67899999999997</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.25">
@@ -18699,16 +18699,16 @@
         <v>70</v>
       </c>
       <c r="K260" s="72">
-        <v>52.928000000000004</v>
+        <v>52.927999999999997</v>
       </c>
       <c r="L260" s="72">
-        <v>104.131</v>
+        <v>104.13100000000003</v>
       </c>
       <c r="M260" s="72">
         <v>72.548000000000002</v>
       </c>
       <c r="N260" s="72">
-        <v>157.059</v>
+        <v>157.05900000000003</v>
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.25">
@@ -18790,13 +18790,13 @@
         <v>12.8</v>
       </c>
       <c r="L262" s="72">
-        <v>138.97800000000001</v>
+        <v>138.97799999999998</v>
       </c>
       <c r="M262" s="72">
-        <v>39.622000000000007</v>
+        <v>39.622</v>
       </c>
       <c r="N262" s="72">
-        <v>151.77800000000002</v>
+        <v>151.77799999999999</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.25">
@@ -18834,7 +18834,7 @@
         <v>0</v>
       </c>
       <c r="M263" s="72">
-        <v>151.77800000000002</v>
+        <v>151.77799999999999</v>
       </c>
       <c r="N263" s="72">
         <v>0</v>
@@ -18863,7 +18863,7 @@
         <v>70</v>
       </c>
       <c r="K264" s="72">
-        <v>188.58999999999997</v>
+        <v>188.59</v>
       </c>
       <c r="L264" s="72">
         <v>0</v>
@@ -18872,7 +18872,7 @@
         <v>0</v>
       </c>
       <c r="N264" s="72">
-        <v>188.58999999999997</v>
+        <v>188.59</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.25">
@@ -18907,7 +18907,7 @@
         <v>70</v>
       </c>
       <c r="K265" s="72">
-        <v>42.79</v>
+        <v>42.790000000000006</v>
       </c>
       <c r="L265" s="72">
         <v>174.36599999999999</v>
@@ -18916,7 +18916,7 @@
         <v>14.224</v>
       </c>
       <c r="N265" s="72">
-        <v>217.15599999999998</v>
+        <v>217.15600000000001</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.25">
@@ -18951,16 +18951,16 @@
         <v>70</v>
       </c>
       <c r="K266" s="72">
-        <v>46.903000000000006</v>
+        <v>46.902999999999999</v>
       </c>
       <c r="L266" s="72">
         <v>169.267</v>
       </c>
       <c r="M266" s="72">
-        <v>47.888999999999996</v>
+        <v>47.889000000000003</v>
       </c>
       <c r="N266" s="72">
-        <v>216.17000000000002</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.25">
@@ -18995,16 +18995,16 @@
         <v>70</v>
       </c>
       <c r="K267" s="72">
-        <v>82.06</v>
+        <v>82.059999999999988</v>
       </c>
       <c r="L267" s="72">
-        <v>196.72600000000006</v>
+        <v>196.726</v>
       </c>
       <c r="M267" s="72">
         <v>19.443999999999999</v>
       </c>
       <c r="N267" s="72">
-        <v>278.78600000000006</v>
+        <v>278.786</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.25">
@@ -19089,7 +19089,7 @@
         <v>120.64099999999999</v>
       </c>
       <c r="M269" s="72">
-        <v>82.317999999999984</v>
+        <v>82.317999999999998</v>
       </c>
       <c r="N269" s="72">
         <v>138.327</v>
@@ -19130,13 +19130,13 @@
         <v>10.983000000000001</v>
       </c>
       <c r="L270" s="72">
-        <v>105.31300000000002</v>
+        <v>105.31299999999999</v>
       </c>
       <c r="M270" s="72">
-        <v>33.014000000000003</v>
+        <v>33.013999999999996</v>
       </c>
       <c r="N270" s="72">
-        <v>116.29600000000002</v>
+        <v>116.29599999999999</v>
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.25">
@@ -19177,7 +19177,7 @@
         <v>90.090999999999994</v>
       </c>
       <c r="M271" s="72">
-        <v>26.204999999999998</v>
+        <v>26.205000000000002</v>
       </c>
       <c r="N271" s="72">
         <v>102.809</v>
@@ -19335,16 +19335,16 @@
         <v>70</v>
       </c>
       <c r="K275" s="72">
-        <v>20.837</v>
+        <v>20.836999999999996</v>
       </c>
       <c r="L275" s="72">
-        <v>91.693999999999974</v>
+        <v>91.694000000000017</v>
       </c>
       <c r="M275" s="72">
         <v>8.0510000000000002</v>
       </c>
       <c r="N275" s="72">
-        <v>112.53099999999998</v>
+        <v>112.53100000000001</v>
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.25">
@@ -19382,13 +19382,13 @@
         <v>45.638000000000005</v>
       </c>
       <c r="L276" s="72">
-        <v>99.802999999999969</v>
+        <v>99.802999999999997</v>
       </c>
       <c r="M276" s="72">
         <v>12.728</v>
       </c>
       <c r="N276" s="72">
-        <v>145.44099999999997</v>
+        <v>145.441</v>
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.25">
@@ -19467,16 +19467,16 @@
         <v>70</v>
       </c>
       <c r="K278" s="72">
-        <v>38.772999999999996</v>
+        <v>38.773000000000003</v>
       </c>
       <c r="L278" s="72">
-        <v>47.14</v>
+        <v>47.140000000000008</v>
       </c>
       <c r="M278" s="72">
         <v>22.446999999999999</v>
       </c>
       <c r="N278" s="72">
-        <v>85.912999999999997</v>
+        <v>85.913000000000011</v>
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.25">
@@ -19517,7 +19517,7 @@
         <v>73.379000000000005</v>
       </c>
       <c r="M279" s="72">
-        <v>12.533999999999999</v>
+        <v>12.534000000000001</v>
       </c>
       <c r="N279" s="72">
         <v>84.096000000000004</v>
@@ -19675,10 +19675,10 @@
         <v>70</v>
       </c>
       <c r="K283" s="72">
-        <v>36.586000000000006</v>
+        <v>36.585999999999999</v>
       </c>
       <c r="L283" s="72">
-        <v>148.18600000000001</v>
+        <v>148.18600000000004</v>
       </c>
       <c r="M283" s="72">
         <v>9.729000000000001</v>
@@ -19719,10 +19719,10 @@
         <v>70</v>
       </c>
       <c r="K284" s="72">
-        <v>68.11699999999999</v>
+        <v>68.117000000000004</v>
       </c>
       <c r="L284" s="72">
-        <v>176.208</v>
+        <v>176.20799999999997</v>
       </c>
       <c r="M284" s="72">
         <v>8.5640000000000001</v>
@@ -24465,7 +24465,7 @@
         <v>70.790999999999997</v>
       </c>
       <c r="M395" s="72">
-        <v>55.106000000000002</v>
+        <v>55.105999999999995</v>
       </c>
       <c r="N395" s="72">
         <v>77.278999999999996</v>
@@ -24506,13 +24506,13 @@
         <v>3.367</v>
       </c>
       <c r="L396" s="72">
-        <v>47.193000000000005</v>
+        <v>47.192999999999998</v>
       </c>
       <c r="M396" s="72">
-        <v>30.085999999999999</v>
+        <v>30.086000000000002</v>
       </c>
       <c r="N396" s="72">
-        <v>50.56</v>
+        <v>50.559999999999995</v>
       </c>
     </row>
     <row r="397" spans="1:14" x14ac:dyDescent="0.25">
@@ -24717,7 +24717,7 @@
         <v>43.632000000000005</v>
       </c>
       <c r="M401" s="72">
-        <v>12.792000000000002</v>
+        <v>12.792</v>
       </c>
       <c r="N401" s="72">
         <v>62.197000000000003</v>
@@ -24802,13 +24802,13 @@
         <v>13.469999999999999</v>
       </c>
       <c r="L403" s="72">
-        <v>22.030999999999999</v>
+        <v>22.031000000000006</v>
       </c>
       <c r="M403" s="72">
         <v>53.832000000000001</v>
       </c>
       <c r="N403" s="72">
-        <v>35.500999999999998</v>
+        <v>35.501000000000005</v>
       </c>
     </row>
     <row r="404" spans="1:14" x14ac:dyDescent="0.25">
@@ -24893,7 +24893,7 @@
         <v>15.843999999999998</v>
       </c>
       <c r="M405" s="72">
-        <v>7.7660000000000009</v>
+        <v>7.766</v>
       </c>
       <c r="N405" s="72">
         <v>18.213999999999999</v>
@@ -25007,7 +25007,7 @@
         <v>70</v>
       </c>
       <c r="K408" s="72">
-        <v>25.178000000000001</v>
+        <v>25.178000000000004</v>
       </c>
       <c r="L408" s="72">
         <v>0</v>
@@ -25016,7 +25016,7 @@
         <v>0</v>
       </c>
       <c r="N408" s="72">
-        <v>25.178000000000001</v>
+        <v>25.178000000000004</v>
       </c>
     </row>
     <row r="409" spans="1:14" x14ac:dyDescent="0.25">
@@ -25095,16 +25095,16 @@
         <v>70</v>
       </c>
       <c r="K410" s="72">
-        <v>103.782</v>
+        <v>103.78199999999998</v>
       </c>
       <c r="L410" s="72">
-        <v>48.912999999999997</v>
+        <v>48.912999999999982</v>
       </c>
       <c r="M410" s="72">
         <v>4.1289999999999996</v>
       </c>
       <c r="N410" s="72">
-        <v>152.69499999999999</v>
+        <v>152.69499999999996</v>
       </c>
     </row>
     <row r="411" spans="1:14" x14ac:dyDescent="0.25">
@@ -25142,13 +25142,13 @@
         <v>57.491</v>
       </c>
       <c r="L411" s="72">
-        <v>121.79</v>
+        <v>121.78999999999995</v>
       </c>
       <c r="M411" s="72">
         <v>30.905000000000001</v>
       </c>
       <c r="N411" s="72">
-        <v>179.28100000000001</v>
+        <v>179.28099999999995</v>
       </c>
     </row>
     <row r="412" spans="1:14" x14ac:dyDescent="0.25">
@@ -25186,13 +25186,13 @@
         <v>73.681000000000012</v>
       </c>
       <c r="L412" s="72">
-        <v>49.899000000000001</v>
+        <v>49.898999999999987</v>
       </c>
       <c r="M412" s="72">
         <v>129.38200000000001</v>
       </c>
       <c r="N412" s="72">
-        <v>123.58000000000001</v>
+        <v>123.58</v>
       </c>
     </row>
     <row r="413" spans="1:14" x14ac:dyDescent="0.25">
@@ -25230,13 +25230,13 @@
         <v>7.8279999999999994</v>
       </c>
       <c r="L413" s="72">
-        <v>60.765999999999991</v>
+        <v>60.76600000000002</v>
       </c>
       <c r="M413" s="72">
         <v>62.814</v>
       </c>
       <c r="N413" s="72">
-        <v>68.593999999999994</v>
+        <v>68.594000000000023</v>
       </c>
     </row>
     <row r="414" spans="1:14" x14ac:dyDescent="0.25">
@@ -25271,7 +25271,7 @@
         <v>70</v>
       </c>
       <c r="K414" s="72">
-        <v>17.366999999999997</v>
+        <v>17.367000000000001</v>
       </c>
       <c r="L414" s="72">
         <v>43.001000000000005</v>
@@ -25280,7 +25280,7 @@
         <v>25.593</v>
       </c>
       <c r="N414" s="72">
-        <v>60.368000000000002</v>
+        <v>60.368000000000009</v>
       </c>
     </row>
     <row r="415" spans="1:14" x14ac:dyDescent="0.25">
@@ -25321,7 +25321,7 @@
         <v>33.479999999999997</v>
       </c>
       <c r="M415" s="72">
-        <v>26.887999999999998</v>
+        <v>26.888000000000002</v>
       </c>
       <c r="N415" s="72">
         <v>36.86</v>
@@ -25435,10 +25435,10 @@
         <v>70</v>
       </c>
       <c r="K418" s="72">
-        <v>35.894999999999996</v>
+        <v>35.895000000000003</v>
       </c>
       <c r="L418" s="72">
-        <v>26.50500000000001</v>
+        <v>26.505000000000003</v>
       </c>
       <c r="M418" s="72">
         <v>2.65</v>
@@ -25482,13 +25482,13 @@
         <v>38.201000000000001</v>
       </c>
       <c r="L419" s="72">
-        <v>43.732000000000006</v>
+        <v>43.731999999999992</v>
       </c>
       <c r="M419" s="72">
         <v>18.667999999999999</v>
       </c>
       <c r="N419" s="72">
-        <v>81.933000000000007</v>
+        <v>81.932999999999993</v>
       </c>
     </row>
     <row r="420" spans="1:14" x14ac:dyDescent="0.25">
@@ -25526,13 +25526,13 @@
         <v>141.172</v>
       </c>
       <c r="L420" s="72">
-        <v>53.40900000000002</v>
+        <v>53.408999999999992</v>
       </c>
       <c r="M420" s="72">
         <v>28.524000000000001</v>
       </c>
       <c r="N420" s="72">
-        <v>194.58100000000002</v>
+        <v>194.58099999999999</v>
       </c>
     </row>
     <row r="421" spans="1:14" x14ac:dyDescent="0.25">
@@ -25567,16 +25567,16 @@
         <v>70</v>
       </c>
       <c r="K421" s="72">
-        <v>77.61</v>
+        <v>77.609999999999985</v>
       </c>
       <c r="L421" s="72">
-        <v>54.329000000000022</v>
+        <v>54.329000000000008</v>
       </c>
       <c r="M421" s="72">
-        <v>140.25200000000001</v>
+        <v>140.25199999999998</v>
       </c>
       <c r="N421" s="72">
-        <v>131.93900000000002</v>
+        <v>131.93899999999999</v>
       </c>
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.25">
@@ -25775,7 +25775,7 @@
         <v>70</v>
       </c>
       <c r="K426" s="72">
-        <v>26.255000000000003</v>
+        <v>26.254999999999999</v>
       </c>
       <c r="L426" s="72">
         <v>0</v>
@@ -25784,7 +25784,7 @@
         <v>0</v>
       </c>
       <c r="N426" s="72">
-        <v>26.255000000000003</v>
+        <v>26.254999999999999</v>
       </c>
     </row>
     <row r="427" spans="1:14" x14ac:dyDescent="0.25">
@@ -29401,7 +29401,7 @@
         <v>8.9779999999999998</v>
       </c>
       <c r="M511" s="72">
-        <v>28.658999999999999</v>
+        <v>28.659000000000002</v>
       </c>
       <c r="N511" s="72">
         <v>19.61</v>
@@ -29442,13 +29442,13 @@
         <v>3.5169999999999999</v>
       </c>
       <c r="L512" s="72">
-        <v>11.219999999999999</v>
+        <v>11.220000000000002</v>
       </c>
       <c r="M512" s="72">
         <v>8.39</v>
       </c>
       <c r="N512" s="72">
-        <v>14.736999999999998</v>
+        <v>14.737000000000002</v>
       </c>
     </row>
     <row r="513" spans="1:14" x14ac:dyDescent="0.25">
@@ -29489,7 +29489,7 @@
         <v>10.799999999999999</v>
       </c>
       <c r="M513" s="72">
-        <v>3.9369999999999998</v>
+        <v>3.9370000000000003</v>
       </c>
       <c r="N513" s="72">
         <v>16.177</v>
@@ -30954,13 +30954,13 @@
         <v>6.5049999999999999</v>
       </c>
       <c r="L548" s="72">
-        <v>15.404999999999998</v>
+        <v>15.405000000000001</v>
       </c>
       <c r="M548" s="72">
-        <v>52.076000000000008</v>
+        <v>52.075999999999993</v>
       </c>
       <c r="N548" s="72">
-        <v>21.909999999999997</v>
+        <v>21.91</v>
       </c>
     </row>
     <row r="549" spans="1:14" x14ac:dyDescent="0.25">
@@ -32753,7 +32753,7 @@
         <v>73.427000000000007</v>
       </c>
       <c r="M591" s="72">
-        <v>66.623000000000005</v>
+        <v>66.62299999999999</v>
       </c>
       <c r="N591" s="72">
         <v>113.81200000000001</v>
@@ -32838,13 +32838,13 @@
         <v>21.786999999999999</v>
       </c>
       <c r="L593" s="72">
-        <v>93.203999999999979</v>
+        <v>93.204000000000008</v>
       </c>
       <c r="M593" s="72">
-        <v>43.162000000000006</v>
+        <v>43.161999999999999</v>
       </c>
       <c r="N593" s="72">
-        <v>114.99099999999999</v>
+        <v>114.991</v>
       </c>
     </row>
     <row r="594" spans="1:14" x14ac:dyDescent="0.25">
@@ -32882,7 +32882,7 @@
         <v>0</v>
       </c>
       <c r="M594" s="72">
-        <v>114.99099999999999</v>
+        <v>114.991</v>
       </c>
       <c r="N594" s="72">
         <v>0</v>
@@ -32911,7 +32911,7 @@
         <v>70</v>
       </c>
       <c r="K595" s="72">
-        <v>131.11199999999997</v>
+        <v>131.11200000000002</v>
       </c>
       <c r="L595" s="72">
         <v>0</v>
@@ -32920,7 +32920,7 @@
         <v>0</v>
       </c>
       <c r="N595" s="72">
-        <v>131.11199999999997</v>
+        <v>131.11200000000002</v>
       </c>
     </row>
     <row r="596" spans="1:14" x14ac:dyDescent="0.25">
@@ -32955,7 +32955,7 @@
         <v>70</v>
       </c>
       <c r="K596" s="72">
-        <v>54.684000000000005</v>
+        <v>54.683999999999997</v>
       </c>
       <c r="L596" s="72">
         <v>67.376000000000005</v>
@@ -32999,10 +32999,10 @@
         <v>70</v>
       </c>
       <c r="K597" s="72">
-        <v>46.077000000000005</v>
+        <v>46.076999999999998</v>
       </c>
       <c r="L597" s="72">
-        <v>47.785999999999994</v>
+        <v>47.786000000000001</v>
       </c>
       <c r="M597" s="72">
         <v>74.274000000000001</v>
@@ -33046,13 +33046,13 @@
         <v>3.6869999999999998</v>
       </c>
       <c r="L598" s="72">
-        <v>62.311000000000007</v>
+        <v>62.310999999999993</v>
       </c>
       <c r="M598" s="72">
         <v>31.552</v>
       </c>
       <c r="N598" s="72">
-        <v>65.998000000000005</v>
+        <v>65.99799999999999</v>
       </c>
     </row>
     <row r="599" spans="1:14" x14ac:dyDescent="0.25">
@@ -33090,7 +33090,7 @@
         <v>0</v>
       </c>
       <c r="M599" s="72">
-        <v>65.998000000000005</v>
+        <v>65.99799999999999</v>
       </c>
       <c r="N599" s="72">
         <v>0</v>
@@ -35085,7 +35085,7 @@
         <v>29.453000000000003</v>
       </c>
       <c r="M647" s="72">
-        <v>113.25399999999999</v>
+        <v>113.254</v>
       </c>
       <c r="N647" s="72">
         <v>97.342000000000013</v>
@@ -35126,13 +35126,13 @@
         <v>31.554999999999996</v>
       </c>
       <c r="L648" s="72">
-        <v>69.504000000000019</v>
+        <v>69.504000000000005</v>
       </c>
       <c r="M648" s="72">
         <v>27.838000000000001</v>
       </c>
       <c r="N648" s="72">
-        <v>101.05900000000001</v>
+        <v>101.059</v>
       </c>
     </row>
     <row r="649" spans="1:14" x14ac:dyDescent="0.25">
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="M649" s="72">
-        <v>101.05900000000001</v>
+        <v>101.059</v>
       </c>
       <c r="N649" s="72">
         <v>0</v>
@@ -35290,13 +35290,13 @@
         <v>31.149000000000001</v>
       </c>
       <c r="L652" s="72">
-        <v>37.906999999999996</v>
+        <v>37.907000000000011</v>
       </c>
       <c r="M652" s="72">
         <v>161.00099999999998</v>
       </c>
       <c r="N652" s="72">
-        <v>69.055999999999997</v>
+        <v>69.056000000000012</v>
       </c>
     </row>
     <row r="653" spans="1:14" x14ac:dyDescent="0.25">
@@ -37055,7 +37055,7 @@
         <v>70</v>
       </c>
       <c r="K696" s="72">
-        <v>83.194000000000003</v>
+        <v>83.193999999999988</v>
       </c>
       <c r="L696" s="72">
         <v>0</v>
@@ -37064,7 +37064,7 @@
         <v>0</v>
       </c>
       <c r="N696" s="72">
-        <v>83.194000000000003</v>
+        <v>83.193999999999988</v>
       </c>
     </row>
     <row r="697" spans="1:14" x14ac:dyDescent="0.25">
@@ -37102,7 +37102,7 @@
         <v>0</v>
       </c>
       <c r="M697" s="72">
-        <v>83.194000000000003</v>
+        <v>83.193999999999988</v>
       </c>
       <c r="N697" s="72">
         <v>0</v>
@@ -39557,7 +39557,7 @@
         <v>30.47</v>
       </c>
       <c r="M756" s="72">
-        <v>8.4230000000000018</v>
+        <v>8.4229999999999983</v>
       </c>
       <c r="N756" s="72">
         <v>43.887</v>
@@ -40978,13 +40978,13 @@
         <v>46.165999999999997</v>
       </c>
       <c r="L790" s="72">
-        <v>139.27000000000001</v>
+        <v>139.26999999999998</v>
       </c>
       <c r="M790" s="72">
-        <v>37.167999999999999</v>
+        <v>37.168000000000006</v>
       </c>
       <c r="N790" s="72">
-        <v>185.43600000000001</v>
+        <v>185.43599999999998</v>
       </c>
     </row>
     <row r="791" spans="1:14" x14ac:dyDescent="0.25">
@@ -41022,13 +41022,13 @@
         <v>36.753</v>
       </c>
       <c r="L791" s="72">
-        <v>32.405000000000015</v>
+        <v>32.404999999999987</v>
       </c>
       <c r="M791" s="72">
         <v>153.03100000000001</v>
       </c>
       <c r="N791" s="72">
-        <v>69.158000000000015</v>
+        <v>69.157999999999987</v>
       </c>
     </row>
     <row r="792" spans="1:14" x14ac:dyDescent="0.25">
@@ -42443,10 +42443,10 @@
         <v>70</v>
       </c>
       <c r="K825" s="72">
-        <v>49.429999999999993</v>
+        <v>49.430000000000007</v>
       </c>
       <c r="L825" s="72">
-        <v>55.078000000000017</v>
+        <v>55.078000000000003</v>
       </c>
       <c r="M825" s="72">
         <v>6.1719999999999997</v>
@@ -42490,13 +42490,13 @@
         <v>75.096000000000004</v>
       </c>
       <c r="L826" s="72">
-        <v>40.659999999999997</v>
+        <v>40.660000000000011</v>
       </c>
       <c r="M826" s="72">
         <v>63.847999999999999</v>
       </c>
       <c r="N826" s="72">
-        <v>115.756</v>
+        <v>115.75600000000001</v>
       </c>
     </row>
     <row r="827" spans="1:14" x14ac:dyDescent="0.25">
@@ -42537,7 +42537,7 @@
         <v>86.884</v>
       </c>
       <c r="M827" s="72">
-        <v>28.872</v>
+        <v>28.871999999999996</v>
       </c>
       <c r="N827" s="72">
         <v>108.363</v>
@@ -42581,7 +42581,7 @@
         <v>84.429000000000002</v>
       </c>
       <c r="M828" s="72">
-        <v>23.934000000000001</v>
+        <v>23.933999999999997</v>
       </c>
       <c r="N828" s="72">
         <v>87.070999999999998</v>
@@ -43958,13 +43958,13 @@
         <v>76.759999999999991</v>
       </c>
       <c r="L861" s="72">
-        <v>116.05200000000002</v>
+        <v>116.05200000000005</v>
       </c>
       <c r="M861" s="72">
         <v>2.2109999999999999</v>
       </c>
       <c r="N861" s="72">
-        <v>192.81200000000001</v>
+        <v>192.81200000000004</v>
       </c>
     </row>
     <row r="862" spans="1:14" x14ac:dyDescent="0.25">
@@ -44046,13 +44046,13 @@
         <v>57.859000000000002</v>
       </c>
       <c r="L863" s="72">
-        <v>58.019000000000013</v>
+        <v>58.018999999999998</v>
       </c>
       <c r="M863" s="72">
-        <v>182.01600000000002</v>
+        <v>182.01600000000005</v>
       </c>
       <c r="N863" s="72">
-        <v>115.87800000000001</v>
+        <v>115.878</v>
       </c>
     </row>
     <row r="864" spans="1:14" x14ac:dyDescent="0.25">
@@ -44087,7 +44087,7 @@
         <v>70</v>
       </c>
       <c r="K864" s="72">
-        <v>13.020000000000001</v>
+        <v>13.02</v>
       </c>
       <c r="L864" s="72">
         <v>83.876999999999995</v>
@@ -45394,7 +45394,7 @@
         <v>0</v>
       </c>
       <c r="M895" s="72">
-        <v>67.625999999999991</v>
+        <v>67.626000000000005</v>
       </c>
       <c r="N895" s="72">
         <v>0</v>
@@ -45511,13 +45511,13 @@
         <v>70</v>
       </c>
       <c r="K898" s="72">
-        <v>81.337999999999994</v>
+        <v>81.338000000000008</v>
       </c>
       <c r="L898" s="72">
-        <v>43.597000000000008</v>
+        <v>43.596999999999994</v>
       </c>
       <c r="M898" s="72">
-        <v>97.807000000000002</v>
+        <v>97.807000000000016</v>
       </c>
       <c r="N898" s="72">
         <v>124.935</v>
@@ -45561,7 +45561,7 @@
         <v>98.658999999999992</v>
       </c>
       <c r="M899" s="72">
-        <v>26.276</v>
+        <v>26.276000000000003</v>
       </c>
       <c r="N899" s="72">
         <v>129.55799999999999</v>
@@ -45605,7 +45605,7 @@
         <v>85.275000000000006</v>
       </c>
       <c r="M900" s="72">
-        <v>44.283000000000001</v>
+        <v>44.282999999999994</v>
       </c>
       <c r="N900" s="72">
         <v>86.596000000000004</v>
@@ -46979,16 +46979,16 @@
         <v>70</v>
       </c>
       <c r="K933" s="72">
-        <v>28.273</v>
+        <v>28.273000000000003</v>
       </c>
       <c r="L933" s="72">
-        <v>45.565000000000012</v>
+        <v>45.564999999999991</v>
       </c>
       <c r="M933" s="72">
         <v>3.8069999999999999</v>
       </c>
       <c r="N933" s="72">
-        <v>73.838000000000008</v>
+        <v>73.837999999999994</v>
       </c>
     </row>
     <row r="934" spans="1:14" x14ac:dyDescent="0.25">
@@ -47029,7 +47029,7 @@
         <v>59.153000000000006</v>
       </c>
       <c r="M934" s="72">
-        <v>14.685</v>
+        <v>14.684999999999999</v>
       </c>
       <c r="N934" s="72">
         <v>104.84800000000001</v>
@@ -47070,13 +47070,13 @@
         <v>54.415999999999997</v>
       </c>
       <c r="L935" s="72">
-        <v>45.384000000000015</v>
+        <v>45.384</v>
       </c>
       <c r="M935" s="72">
-        <v>59.464000000000006</v>
+        <v>59.463999999999999</v>
       </c>
       <c r="N935" s="72">
-        <v>99.800000000000011</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="936" spans="1:14" x14ac:dyDescent="0.25">
@@ -47117,7 +47117,7 @@
         <v>81.561000000000007</v>
       </c>
       <c r="M936" s="72">
-        <v>18.239000000000004</v>
+        <v>18.238999999999997</v>
       </c>
       <c r="N936" s="72">
         <v>94.580000000000013</v>
@@ -48535,7 +48535,7 @@
         <v>70</v>
       </c>
       <c r="K970" s="72">
-        <v>16.047000000000001</v>
+        <v>16.046999999999997</v>
       </c>
       <c r="L970" s="72">
         <v>32.459000000000003</v>
@@ -48626,13 +48626,13 @@
         <v>3.3479999999999999</v>
       </c>
       <c r="L972" s="72">
-        <v>19.360000000000003</v>
+        <v>19.36</v>
       </c>
       <c r="M972" s="72">
-        <v>10.758000000000001</v>
+        <v>10.757999999999999</v>
       </c>
       <c r="N972" s="72">
-        <v>22.708000000000002</v>
+        <v>22.707999999999998</v>
       </c>
     </row>
     <row r="973" spans="1:14" x14ac:dyDescent="0.25">
@@ -49959,7 +49959,7 @@
         <v>70</v>
       </c>
       <c r="K1004" s="72">
-        <v>108.86099999999999</v>
+        <v>108.861</v>
       </c>
       <c r="L1004" s="72">
         <v>0</v>
@@ -49968,7 +49968,7 @@
         <v>0</v>
       </c>
       <c r="N1004" s="72">
-        <v>108.86099999999999</v>
+        <v>108.861</v>
       </c>
     </row>
     <row r="1005" spans="1:14" x14ac:dyDescent="0.25">
@@ -50050,13 +50050,13 @@
         <v>14.143000000000001</v>
       </c>
       <c r="L1006" s="72">
-        <v>53.193999999999988</v>
+        <v>53.194000000000003</v>
       </c>
       <c r="M1006" s="72">
         <v>116.71499999999999</v>
       </c>
       <c r="N1006" s="72">
-        <v>67.336999999999989</v>
+        <v>67.337000000000003</v>
       </c>
     </row>
     <row r="1007" spans="1:14" x14ac:dyDescent="0.25">
@@ -50094,13 +50094,13 @@
         <v>93.227000000000004</v>
       </c>
       <c r="L1007" s="72">
-        <v>27.210999999999984</v>
+        <v>27.211000000000013</v>
       </c>
       <c r="M1007" s="72">
-        <v>40.125999999999998</v>
+        <v>40.126000000000005</v>
       </c>
       <c r="N1007" s="72">
-        <v>120.43799999999999</v>
+        <v>120.43800000000002</v>
       </c>
     </row>
     <row r="1008" spans="1:14" x14ac:dyDescent="0.25">
@@ -50138,13 +50138,13 @@
         <v>15.86</v>
       </c>
       <c r="L1008" s="72">
-        <v>71.067999999999998</v>
+        <v>71.068000000000012</v>
       </c>
       <c r="M1008" s="72">
         <v>49.370000000000005</v>
       </c>
       <c r="N1008" s="72">
-        <v>86.927999999999997</v>
+        <v>86.928000000000011</v>
       </c>
     </row>
     <row r="1009" spans="1:14" x14ac:dyDescent="0.25">
@@ -50182,7 +50182,7 @@
         <v>0</v>
       </c>
       <c r="M1009" s="72">
-        <v>86.927999999999997</v>
+        <v>86.928000000000011</v>
       </c>
       <c r="N1009" s="72">
         <v>0</v>
@@ -51442,7 +51442,7 @@
         <v>0</v>
       </c>
       <c r="M1039" s="72">
-        <v>58.245000000000005</v>
+        <v>58.244999999999997</v>
       </c>
       <c r="N1039" s="72">
         <v>0</v>
@@ -51603,7 +51603,7 @@
         <v>70</v>
       </c>
       <c r="K1043" s="72">
-        <v>23.311</v>
+        <v>23.311000000000003</v>
       </c>
       <c r="L1043" s="72">
         <v>95.206999999999994</v>
@@ -51653,7 +51653,7 @@
         <v>62.195999999999998</v>
       </c>
       <c r="M1044" s="72">
-        <v>56.322000000000003</v>
+        <v>56.321999999999989</v>
       </c>
       <c r="N1044" s="72">
         <v>70.548000000000002</v>
@@ -55346,13 +55346,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="72">
-        <v>296.44324999999992</v>
+        <v>296.44325000000003</v>
       </c>
       <c r="H10" s="72">
         <v>350</v>
       </c>
       <c r="I10" s="76">
-        <v>0.84698071428571409</v>
+        <v>0.84698071428571442</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -55375,13 +55375,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="72">
-        <v>76.064000000000021</v>
+        <v>76.064000000000007</v>
       </c>
       <c r="H11" s="72">
         <v>350</v>
       </c>
       <c r="I11" s="76">
-        <v>0.21732571428571434</v>
+        <v>0.21732571428571432</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -55462,7 +55462,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="72">
-        <v>80.989750000000001</v>
+        <v>80.989749999999987</v>
       </c>
       <c r="H14" s="72">
         <v>140</v>
@@ -55491,13 +55491,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="72">
-        <v>103.20675</v>
+        <v>103.20675000000001</v>
       </c>
       <c r="H15" s="72">
         <v>140</v>
       </c>
       <c r="I15" s="76">
-        <v>0.73719107142857143</v>
+        <v>0.73719107142857154</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -55520,13 +55520,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="72">
-        <v>418.61849999999976</v>
+        <v>418.61849999999998</v>
       </c>
       <c r="H16" s="72">
         <v>490</v>
       </c>
       <c r="I16" s="76">
-        <v>0.85432346938775461</v>
+        <v>0.85432346938775505</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -55549,13 +55549,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="72">
-        <v>156.18149999999991</v>
+        <v>156.18149999999983</v>
       </c>
       <c r="H17" s="72">
         <v>490</v>
       </c>
       <c r="I17" s="76">
-        <v>0.31873775510204067</v>
+        <v>0.31873775510204044</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -55578,13 +55578,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="72">
-        <v>40.9</v>
+        <v>40.900000000000006</v>
       </c>
       <c r="H18" s="72">
         <v>70</v>
       </c>
       <c r="I18" s="76">
-        <v>0.5842857142857143</v>
+        <v>0.58428571428571441</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -55607,13 +55607,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="72">
-        <v>50.377999999999993</v>
+        <v>50.378000000000014</v>
       </c>
       <c r="H19" s="72">
         <v>70</v>
       </c>
       <c r="I19" s="76">
-        <v>0.71968571428571415</v>
+        <v>0.71968571428571448</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -55810,13 +55810,13 @@
         <v>0</v>
       </c>
       <c r="G26" s="72">
-        <v>61.135750000000016</v>
+        <v>61.135749999999994</v>
       </c>
       <c r="H26" s="72">
         <v>70</v>
       </c>
       <c r="I26" s="76">
-        <v>0.87336785714285736</v>
+        <v>0.87336785714285703</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -55839,13 +55839,13 @@
         <v>0</v>
       </c>
       <c r="G27" s="72">
-        <v>43.853500000000004</v>
+        <v>43.85349999999999</v>
       </c>
       <c r="H27" s="72">
         <v>70</v>
       </c>
       <c r="I27" s="76">
-        <v>0.62647857142857144</v>
+        <v>0.62647857142857133</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -55926,13 +55926,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="72">
-        <v>131.99100000000001</v>
+        <v>131.99100000000004</v>
       </c>
       <c r="H30" s="72">
         <v>140</v>
       </c>
       <c r="I30" s="76">
-        <v>0.94279285714285721</v>
+        <v>0.94279285714285743</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -55955,13 +55955,13 @@
         <v>0</v>
       </c>
       <c r="G31" s="72">
-        <v>97.02649999999997</v>
+        <v>97.026500000000013</v>
       </c>
       <c r="H31" s="72">
         <v>140</v>
       </c>
       <c r="I31" s="76">
-        <v>0.6930464285714284</v>
+        <v>0.69304642857142862</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -56042,13 +56042,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="72">
-        <v>554.09274999999968</v>
+        <v>554.0927499999998</v>
       </c>
       <c r="H34" s="72">
         <v>560</v>
       </c>
       <c r="I34" s="76">
-        <v>0.98945133928571372</v>
+        <v>0.98945133928571394</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -56071,13 +56071,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="72">
-        <v>239.85999999999987</v>
+        <v>239.85999999999993</v>
       </c>
       <c r="H35" s="72">
         <v>560</v>
       </c>
       <c r="I35" s="76">
-        <v>0.42832142857142835</v>
+        <v>0.42832142857142846</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -56158,13 +56158,13 @@
         <v>0</v>
       </c>
       <c r="G38" s="72">
-        <v>131.14750000000001</v>
+        <v>131.14750000000006</v>
       </c>
       <c r="H38" s="72">
         <v>140</v>
       </c>
       <c r="I38" s="76">
-        <v>0.93676785714285715</v>
+        <v>0.9367678571428576</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -56187,13 +56187,13 @@
         <v>0</v>
       </c>
       <c r="G39" s="72">
-        <v>92.43</v>
+        <v>92.429999999999978</v>
       </c>
       <c r="H39" s="72">
         <v>140</v>
       </c>
       <c r="I39" s="76">
-        <v>0.66021428571428575</v>
+        <v>0.66021428571428553</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -56245,13 +56245,13 @@
         <v>0</v>
       </c>
       <c r="G41" s="72">
-        <v>43.743500000000004</v>
+        <v>43.743500000000012</v>
       </c>
       <c r="H41" s="72">
         <v>70</v>
       </c>
       <c r="I41" s="76">
-        <v>0.62490714285714288</v>
+        <v>0.62490714285714299</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -56274,13 +56274,13 @@
         <v>0</v>
       </c>
       <c r="G42" s="72">
-        <v>184.80750000000003</v>
+        <v>184.8075</v>
       </c>
       <c r="H42" s="72">
         <v>210</v>
       </c>
       <c r="I42" s="76">
-        <v>0.88003571428571448</v>
+        <v>0.88003571428571425</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -56303,13 +56303,13 @@
         <v>0</v>
       </c>
       <c r="G43" s="72">
-        <v>120.65875000000003</v>
+        <v>120.65875</v>
       </c>
       <c r="H43" s="72">
         <v>210</v>
       </c>
       <c r="I43" s="76">
-        <v>0.57456547619047627</v>
+        <v>0.57456547619047615</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -56332,13 +56332,13 @@
         <v>0</v>
       </c>
       <c r="G44" s="72">
-        <v>42.27375</v>
+        <v>42.273750000000007</v>
       </c>
       <c r="H44" s="72">
         <v>70</v>
       </c>
       <c r="I44" s="76">
-        <v>0.6039107142857143</v>
+        <v>0.60391071428571441</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -56390,13 +56390,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="72">
-        <v>346.18175000000008</v>
+        <v>346.18174999999974</v>
       </c>
       <c r="H46" s="72">
         <v>350</v>
       </c>
       <c r="I46" s="76">
-        <v>0.98909071428571449</v>
+        <v>0.98909071428571349</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -56419,13 +56419,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="72">
-        <v>263.30374999999998</v>
+        <v>263.30374999999987</v>
       </c>
       <c r="H47" s="72">
         <v>350</v>
       </c>
       <c r="I47" s="76">
-        <v>0.75229642857142853</v>
+        <v>0.7522964285714282</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -56506,13 +56506,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="72">
-        <v>225.64224999999999</v>
+        <v>225.6422500000001</v>
       </c>
       <c r="H50" s="72">
         <v>350</v>
       </c>
       <c r="I50" s="76">
-        <v>0.64469214285714282</v>
+        <v>0.64469214285714316</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -56535,13 +56535,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="72">
-        <v>343.96524999999974</v>
+        <v>343.96524999999991</v>
       </c>
       <c r="H51" s="72">
         <v>350</v>
       </c>
       <c r="I51" s="76">
-        <v>0.98275785714285635</v>
+        <v>0.98275785714285691</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -56564,13 +56564,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="72">
-        <v>419.13124999999997</v>
+        <v>419.13125000000002</v>
       </c>
       <c r="H52" s="72">
         <v>560</v>
       </c>
       <c r="I52" s="76">
-        <v>0.74844866071428562</v>
+        <v>0.74844866071428573</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -56593,13 +56593,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="72">
-        <v>510.09799999999962</v>
+        <v>510.09799999999984</v>
       </c>
       <c r="H53" s="72">
         <v>560</v>
       </c>
       <c r="I53" s="76">
-        <v>0.91088928571428507</v>
+        <v>0.9108892857142854</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -56622,13 +56622,13 @@
         <v>0</v>
       </c>
       <c r="G54" s="72">
-        <v>85.914249999999981</v>
+        <v>85.91425000000001</v>
       </c>
       <c r="H54" s="72">
         <v>140</v>
       </c>
       <c r="I54" s="76">
-        <v>0.6136732142857142</v>
+        <v>0.61367321428571431</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -56941,13 +56941,13 @@
         <v>0</v>
       </c>
       <c r="G65" s="72">
-        <v>92.640749999999997</v>
+        <v>92.640750000000011</v>
       </c>
       <c r="H65" s="72">
         <v>140</v>
       </c>
       <c r="I65" s="76">
-        <v>0.6617196428571428</v>
+        <v>0.66171964285714291</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -57057,13 +57057,13 @@
         <v>0</v>
       </c>
       <c r="G69" s="72">
-        <v>166.96599999999998</v>
+        <v>166.96600000000001</v>
       </c>
       <c r="H69" s="72">
         <v>210</v>
       </c>
       <c r="I69" s="76">
-        <v>0.79507619047619038</v>
+        <v>0.79507619047619049</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -57086,13 +57086,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="72">
-        <v>263.18925000000007</v>
+        <v>263.18924999999996</v>
       </c>
       <c r="H70" s="72">
         <v>350</v>
       </c>
       <c r="I70" s="76">
-        <v>0.7519692857142859</v>
+        <v>0.75196928571428556</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -57115,13 +57115,13 @@
         <v>0</v>
       </c>
       <c r="G71" s="72">
-        <v>219.71575000000004</v>
+        <v>219.71574999999996</v>
       </c>
       <c r="H71" s="72">
         <v>350</v>
       </c>
       <c r="I71" s="76">
-        <v>0.62775928571428585</v>
+        <v>0.62775928571428563</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -57144,13 +57144,13 @@
         <v>0</v>
       </c>
       <c r="G72" s="72">
-        <v>45.39524999999999</v>
+        <v>45.395249999999997</v>
       </c>
       <c r="H72" s="72">
         <v>70</v>
       </c>
       <c r="I72" s="76">
-        <v>0.64850357142857129</v>
+        <v>0.6485035714285714</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -57318,13 +57318,13 @@
         <v>0</v>
       </c>
       <c r="G78" s="72">
-        <v>54.477750000000007</v>
+        <v>54.47775</v>
       </c>
       <c r="H78" s="72">
         <v>70</v>
       </c>
       <c r="I78" s="76">
-        <v>0.77825357142857154</v>
+        <v>0.77825357142857143</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -57347,13 +57347,13 @@
         <v>0</v>
       </c>
       <c r="G79" s="72">
-        <v>35.89</v>
+        <v>35.889999999999993</v>
       </c>
       <c r="H79" s="72">
         <v>70</v>
       </c>
       <c r="I79" s="76">
-        <v>0.51271428571428568</v>
+        <v>0.51271428571428557</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -57376,13 +57376,13 @@
         <v>0</v>
       </c>
       <c r="G80" s="72">
-        <v>110.01474999999996</v>
+        <v>110.01474999999999</v>
       </c>
       <c r="H80" s="72">
         <v>140</v>
       </c>
       <c r="I80" s="76">
-        <v>0.78581964285714256</v>
+        <v>0.78581964285714279</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -57434,13 +57434,13 @@
         <v>0</v>
       </c>
       <c r="G82" s="72">
-        <v>192.11724999999996</v>
+        <v>192.11724999999993</v>
       </c>
       <c r="H82" s="72">
         <v>210</v>
       </c>
       <c r="I82" s="76">
-        <v>0.91484404761904736</v>
+        <v>0.91484404761904725</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -57463,13 +57463,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="72">
-        <v>86.186749999999961</v>
+        <v>86.186750000000004</v>
       </c>
       <c r="H83" s="72">
         <v>210</v>
       </c>
       <c r="I83" s="76">
-        <v>0.41041309523809505</v>
+        <v>0.41041309523809527</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -57492,13 +57492,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="72">
-        <v>168.25125000000006</v>
+        <v>168.25124999999997</v>
       </c>
       <c r="H84" s="72">
         <v>210</v>
       </c>
       <c r="I84" s="76">
-        <v>0.80119642857142881</v>
+        <v>0.80119642857142848</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -57521,13 +57521,13 @@
         <v>0</v>
       </c>
       <c r="G85" s="72">
-        <v>40.552000000000007</v>
+        <v>40.551999999999957</v>
       </c>
       <c r="H85" s="72">
         <v>210</v>
       </c>
       <c r="I85" s="76">
-        <v>0.19310476190476195</v>
+        <v>0.1931047619047617</v>
       </c>
     </row>
   </sheetData>

--- a/Grid_5x5/Solutions/Solution_NDP_S073/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S073/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
@@ -2639,7 +2639,7 @@
         <v>166</v>
       </c>
       <c r="C39" s="38">
-        <v>23.74844726129697</v>
+        <v>23.748447261296977</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>129</v>
@@ -2700,7 +2700,7 @@
         <v>202</v>
       </c>
       <c r="C42" s="39">
-        <v>0.98945133928571394</v>
+        <v>0.98945133928571372</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>42</v>
@@ -2720,7 +2720,7 @@
         <v>204</v>
       </c>
       <c r="C43" s="40">
-        <v>1.993871428571429</v>
+        <v>1.9938714285714281</v>
       </c>
       <c r="D43" s="67" t="s">
         <v>42</v>
@@ -8490,7 +8490,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="72">
-        <v>30.073999999999998</v>
+        <v>30.074000000000002</v>
       </c>
       <c r="N17" s="72">
         <v>0</v>
@@ -8701,7 +8701,7 @@
         <v>15.768000000000001</v>
       </c>
       <c r="M22" s="72">
-        <v>52.695</v>
+        <v>52.694999999999993</v>
       </c>
       <c r="N22" s="72">
         <v>31.241</v>
@@ -10031,7 +10031,7 @@
         <v>70</v>
       </c>
       <c r="K54" s="72">
-        <v>19.739999999999998</v>
+        <v>19.740000000000002</v>
       </c>
       <c r="L54" s="72">
         <v>0</v>
@@ -10040,7 +10040,7 @@
         <v>0</v>
       </c>
       <c r="N54" s="72">
-        <v>19.739999999999998</v>
+        <v>19.740000000000002</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -10075,16 +10075,16 @@
         <v>70</v>
       </c>
       <c r="K55" s="72">
-        <v>12.054000000000002</v>
+        <v>12.054</v>
       </c>
       <c r="L55" s="72">
-        <v>18.731999999999996</v>
+        <v>18.731999999999999</v>
       </c>
       <c r="M55" s="72">
         <v>1.008</v>
       </c>
       <c r="N55" s="72">
-        <v>30.785999999999998</v>
+        <v>30.786000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -10122,13 +10122,13 @@
         <v>27.613</v>
       </c>
       <c r="L56" s="72">
-        <v>27.786000000000001</v>
+        <v>27.785999999999994</v>
       </c>
       <c r="M56" s="72">
         <v>3</v>
       </c>
       <c r="N56" s="72">
-        <v>55.399000000000001</v>
+        <v>55.398999999999994</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -10163,16 +10163,16 @@
         <v>70</v>
       </c>
       <c r="K57" s="72">
-        <v>31.608999999999998</v>
+        <v>31.609000000000002</v>
       </c>
       <c r="L57" s="72">
-        <v>26.571000000000009</v>
+        <v>26.570999999999998</v>
       </c>
       <c r="M57" s="72">
         <v>28.827999999999996</v>
       </c>
       <c r="N57" s="72">
-        <v>58.180000000000007</v>
+        <v>58.18</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -10210,13 +10210,13 @@
         <v>6.4529999999999994</v>
       </c>
       <c r="L58" s="72">
-        <v>33.631999999999991</v>
+        <v>33.632000000000005</v>
       </c>
       <c r="M58" s="72">
         <v>24.547999999999998</v>
       </c>
       <c r="N58" s="72">
-        <v>40.084999999999994</v>
+        <v>40.085000000000008</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -11455,7 +11455,7 @@
         <v>70</v>
       </c>
       <c r="K88" s="72">
-        <v>100.40299999999999</v>
+        <v>100.40300000000002</v>
       </c>
       <c r="L88" s="72">
         <v>0</v>
@@ -11464,7 +11464,7 @@
         <v>0</v>
       </c>
       <c r="N88" s="72">
-        <v>100.40299999999999</v>
+        <v>100.40300000000002</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -12838,13 +12838,13 @@
         <v>8.968</v>
       </c>
       <c r="L121" s="72">
-        <v>68.688999999999993</v>
+        <v>68.689000000000007</v>
       </c>
       <c r="M121" s="72">
-        <v>44.075999999999993</v>
+        <v>44.076000000000001</v>
       </c>
       <c r="N121" s="72">
-        <v>77.656999999999996</v>
+        <v>77.657000000000011</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -12882,7 +12882,7 @@
         <v>0</v>
       </c>
       <c r="M122" s="72">
-        <v>77.656999999999996</v>
+        <v>77.657000000000011</v>
       </c>
       <c r="N122" s="72">
         <v>0</v>
@@ -14127,16 +14127,16 @@
         <v>70</v>
       </c>
       <c r="K152" s="72">
-        <v>43.263000000000005</v>
+        <v>43.262999999999991</v>
       </c>
       <c r="L152" s="72">
-        <v>147.38699999999997</v>
+        <v>147.38700000000006</v>
       </c>
       <c r="M152" s="72">
         <v>14.532</v>
       </c>
       <c r="N152" s="72">
-        <v>190.64999999999998</v>
+        <v>190.65000000000003</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
@@ -14171,13 +14171,13 @@
         <v>70</v>
       </c>
       <c r="K153" s="72">
-        <v>45.553000000000004</v>
+        <v>45.552999999999997</v>
       </c>
       <c r="L153" s="72">
-        <v>48.625999999999998</v>
+        <v>48.626000000000005</v>
       </c>
       <c r="M153" s="72">
-        <v>142.024</v>
+        <v>142.02400000000003</v>
       </c>
       <c r="N153" s="72">
         <v>94.179000000000002</v>
@@ -14221,7 +14221,7 @@
         <v>65.125999999999991</v>
       </c>
       <c r="M154" s="72">
-        <v>29.053000000000004</v>
+        <v>29.053000000000001</v>
       </c>
       <c r="N154" s="72">
         <v>87.373999999999995</v>
@@ -15595,13 +15595,13 @@
         <v>70</v>
       </c>
       <c r="K187" s="72">
-        <v>51.248000000000005</v>
+        <v>51.247999999999998</v>
       </c>
       <c r="L187" s="72">
         <v>65.929000000000002</v>
       </c>
       <c r="M187" s="72">
-        <v>41.804000000000002</v>
+        <v>41.803999999999995</v>
       </c>
       <c r="N187" s="72">
         <v>117.17700000000001</v>
@@ -15639,10 +15639,10 @@
         <v>70</v>
       </c>
       <c r="K188" s="72">
-        <v>78.303000000000011</v>
+        <v>78.302999999999997</v>
       </c>
       <c r="L188" s="72">
-        <v>55.143999999999991</v>
+        <v>55.144000000000005</v>
       </c>
       <c r="M188" s="72">
         <v>62.033000000000001</v>
@@ -15730,13 +15730,13 @@
         <v>2.238</v>
       </c>
       <c r="L190" s="72">
-        <v>77.022999999999996</v>
+        <v>77.02300000000001</v>
       </c>
       <c r="M190" s="72">
-        <v>21.444000000000003</v>
+        <v>21.443999999999999</v>
       </c>
       <c r="N190" s="72">
-        <v>79.260999999999996</v>
+        <v>79.26100000000001</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
@@ -15774,7 +15774,7 @@
         <v>0</v>
       </c>
       <c r="M191" s="72">
-        <v>79.260999999999996</v>
+        <v>79.26100000000001</v>
       </c>
       <c r="N191" s="72">
         <v>0</v>
@@ -18658,13 +18658,13 @@
         <v>78.687000000000012</v>
       </c>
       <c r="L259" s="72">
-        <v>97.991999999999962</v>
+        <v>97.992000000000019</v>
       </c>
       <c r="M259" s="72">
-        <v>173.732</v>
+        <v>173.73200000000003</v>
       </c>
       <c r="N259" s="72">
-        <v>176.67899999999997</v>
+        <v>176.67900000000003</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.25">
@@ -18790,13 +18790,13 @@
         <v>12.8</v>
       </c>
       <c r="L262" s="72">
-        <v>138.97799999999998</v>
+        <v>138.97800000000001</v>
       </c>
       <c r="M262" s="72">
         <v>39.622</v>
       </c>
       <c r="N262" s="72">
-        <v>151.77799999999999</v>
+        <v>151.77800000000002</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.25">
@@ -18834,7 +18834,7 @@
         <v>0</v>
       </c>
       <c r="M263" s="72">
-        <v>151.77799999999999</v>
+        <v>151.77800000000002</v>
       </c>
       <c r="N263" s="72">
         <v>0</v>
@@ -18863,7 +18863,7 @@
         <v>70</v>
       </c>
       <c r="K264" s="72">
-        <v>188.59</v>
+        <v>188.58999999999997</v>
       </c>
       <c r="L264" s="72">
         <v>0</v>
@@ -18872,7 +18872,7 @@
         <v>0</v>
       </c>
       <c r="N264" s="72">
-        <v>188.59</v>
+        <v>188.58999999999997</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.25">
@@ -18907,10 +18907,10 @@
         <v>70</v>
       </c>
       <c r="K265" s="72">
-        <v>42.790000000000006</v>
+        <v>42.789999999999992</v>
       </c>
       <c r="L265" s="72">
-        <v>174.36599999999999</v>
+        <v>174.36600000000001</v>
       </c>
       <c r="M265" s="72">
         <v>14.224</v>
@@ -18951,16 +18951,16 @@
         <v>70</v>
       </c>
       <c r="K266" s="72">
-        <v>46.902999999999999</v>
+        <v>46.903000000000006</v>
       </c>
       <c r="L266" s="72">
         <v>169.267</v>
       </c>
       <c r="M266" s="72">
-        <v>47.889000000000003</v>
+        <v>47.888999999999996</v>
       </c>
       <c r="N266" s="72">
-        <v>216.17</v>
+        <v>216.17000000000002</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.25">
@@ -18995,16 +18995,16 @@
         <v>70</v>
       </c>
       <c r="K267" s="72">
-        <v>82.059999999999988</v>
+        <v>82.06</v>
       </c>
       <c r="L267" s="72">
-        <v>196.726</v>
+        <v>196.72600000000006</v>
       </c>
       <c r="M267" s="72">
         <v>19.443999999999999</v>
       </c>
       <c r="N267" s="72">
-        <v>278.786</v>
+        <v>278.78600000000006</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.25">
@@ -19042,13 +19042,13 @@
         <v>113.72200000000001</v>
       </c>
       <c r="L268" s="72">
-        <v>89.237000000000023</v>
+        <v>89.236999999999995</v>
       </c>
       <c r="M268" s="72">
         <v>189.54899999999998</v>
       </c>
       <c r="N268" s="72">
-        <v>202.95900000000003</v>
+        <v>202.959</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
@@ -19089,7 +19089,7 @@
         <v>120.64099999999999</v>
       </c>
       <c r="M269" s="72">
-        <v>82.317999999999998</v>
+        <v>82.318000000000012</v>
       </c>
       <c r="N269" s="72">
         <v>138.327</v>
@@ -19133,7 +19133,7 @@
         <v>105.31299999999999</v>
       </c>
       <c r="M270" s="72">
-        <v>33.013999999999996</v>
+        <v>33.014000000000003</v>
       </c>
       <c r="N270" s="72">
         <v>116.29599999999999</v>
@@ -19247,7 +19247,7 @@
         <v>70</v>
       </c>
       <c r="K273" s="72">
-        <v>102.53400000000002</v>
+        <v>102.53400000000001</v>
       </c>
       <c r="L273" s="72">
         <v>0</v>
@@ -19256,7 +19256,7 @@
         <v>0</v>
       </c>
       <c r="N273" s="72">
-        <v>102.53400000000002</v>
+        <v>102.53400000000001</v>
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.25">
@@ -19291,10 +19291,10 @@
         <v>70</v>
       </c>
       <c r="K274" s="72">
-        <v>16.02</v>
+        <v>16.020000000000003</v>
       </c>
       <c r="L274" s="72">
-        <v>83.725000000000009</v>
+        <v>83.724999999999994</v>
       </c>
       <c r="M274" s="72">
         <v>18.808999999999997</v>
@@ -19426,13 +19426,13 @@
         <v>14.635</v>
       </c>
       <c r="L277" s="72">
-        <v>54.951999999999991</v>
+        <v>54.952000000000005</v>
       </c>
       <c r="M277" s="72">
         <v>90.489000000000004</v>
       </c>
       <c r="N277" s="72">
-        <v>69.586999999999989</v>
+        <v>69.587000000000003</v>
       </c>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.25">
@@ -19470,13 +19470,13 @@
         <v>38.773000000000003</v>
       </c>
       <c r="L278" s="72">
-        <v>47.140000000000008</v>
+        <v>47.139999999999993</v>
       </c>
       <c r="M278" s="72">
         <v>22.446999999999999</v>
       </c>
       <c r="N278" s="72">
-        <v>85.913000000000011</v>
+        <v>85.912999999999997</v>
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.25">
@@ -19514,13 +19514,13 @@
         <v>10.717000000000001</v>
       </c>
       <c r="L279" s="72">
-        <v>73.379000000000005</v>
+        <v>73.378999999999991</v>
       </c>
       <c r="M279" s="72">
-        <v>12.534000000000001</v>
+        <v>12.533999999999999</v>
       </c>
       <c r="N279" s="72">
-        <v>84.096000000000004</v>
+        <v>84.095999999999989</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.25">
@@ -19678,13 +19678,13 @@
         <v>36.585999999999999</v>
       </c>
       <c r="L283" s="72">
-        <v>148.18600000000004</v>
+        <v>148.18599999999998</v>
       </c>
       <c r="M283" s="72">
         <v>9.729000000000001</v>
       </c>
       <c r="N283" s="72">
-        <v>184.77200000000002</v>
+        <v>184.77199999999999</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.25">
@@ -19722,13 +19722,13 @@
         <v>68.117000000000004</v>
       </c>
       <c r="L284" s="72">
-        <v>176.20799999999997</v>
+        <v>176.20800000000003</v>
       </c>
       <c r="M284" s="72">
         <v>8.5640000000000001</v>
       </c>
       <c r="N284" s="72">
-        <v>244.32499999999999</v>
+        <v>244.32500000000002</v>
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.25">
@@ -24465,7 +24465,7 @@
         <v>70.790999999999997</v>
       </c>
       <c r="M395" s="72">
-        <v>55.105999999999995</v>
+        <v>55.106000000000009</v>
       </c>
       <c r="N395" s="72">
         <v>77.278999999999996</v>
@@ -24506,13 +24506,13 @@
         <v>3.367</v>
       </c>
       <c r="L396" s="72">
-        <v>47.192999999999998</v>
+        <v>47.193000000000005</v>
       </c>
       <c r="M396" s="72">
-        <v>30.086000000000002</v>
+        <v>30.085999999999999</v>
       </c>
       <c r="N396" s="72">
-        <v>50.559999999999995</v>
+        <v>50.56</v>
       </c>
     </row>
     <row r="397" spans="1:14" x14ac:dyDescent="0.25">
@@ -24717,7 +24717,7 @@
         <v>43.632000000000005</v>
       </c>
       <c r="M401" s="72">
-        <v>12.792</v>
+        <v>12.792000000000002</v>
       </c>
       <c r="N401" s="72">
         <v>62.197000000000003</v>
@@ -24799,13 +24799,13 @@
         <v>70</v>
       </c>
       <c r="K403" s="72">
-        <v>13.469999999999999</v>
+        <v>13.47</v>
       </c>
       <c r="L403" s="72">
         <v>22.031000000000006</v>
       </c>
       <c r="M403" s="72">
-        <v>53.832000000000001</v>
+        <v>53.831999999999994</v>
       </c>
       <c r="N403" s="72">
         <v>35.501000000000005</v>
@@ -25007,7 +25007,7 @@
         <v>70</v>
       </c>
       <c r="K408" s="72">
-        <v>25.178000000000004</v>
+        <v>25.177999999999997</v>
       </c>
       <c r="L408" s="72">
         <v>0</v>
@@ -25016,7 +25016,7 @@
         <v>0</v>
       </c>
       <c r="N408" s="72">
-        <v>25.178000000000004</v>
+        <v>25.177999999999997</v>
       </c>
     </row>
     <row r="409" spans="1:14" x14ac:dyDescent="0.25">
@@ -25051,10 +25051,10 @@
         <v>70</v>
       </c>
       <c r="K409" s="72">
-        <v>30.515999999999998</v>
+        <v>30.516000000000002</v>
       </c>
       <c r="L409" s="72">
-        <v>22.526000000000003</v>
+        <v>22.526</v>
       </c>
       <c r="M409" s="72">
         <v>2.6520000000000001</v>
@@ -25095,7 +25095,7 @@
         <v>70</v>
       </c>
       <c r="K410" s="72">
-        <v>103.78199999999998</v>
+        <v>103.78200000000001</v>
       </c>
       <c r="L410" s="72">
         <v>48.912999999999982</v>
@@ -25104,7 +25104,7 @@
         <v>4.1289999999999996</v>
       </c>
       <c r="N410" s="72">
-        <v>152.69499999999996</v>
+        <v>152.69499999999999</v>
       </c>
     </row>
     <row r="411" spans="1:14" x14ac:dyDescent="0.25">
@@ -25189,7 +25189,7 @@
         <v>49.898999999999987</v>
       </c>
       <c r="M412" s="72">
-        <v>129.38200000000001</v>
+        <v>129.38199999999998</v>
       </c>
       <c r="N412" s="72">
         <v>123.58</v>
@@ -25230,13 +25230,13 @@
         <v>7.8279999999999994</v>
       </c>
       <c r="L413" s="72">
-        <v>60.76600000000002</v>
+        <v>60.766000000000005</v>
       </c>
       <c r="M413" s="72">
-        <v>62.814</v>
+        <v>62.813999999999993</v>
       </c>
       <c r="N413" s="72">
-        <v>68.594000000000023</v>
+        <v>68.594000000000008</v>
       </c>
     </row>
     <row r="414" spans="1:14" x14ac:dyDescent="0.25">
@@ -25271,16 +25271,16 @@
         <v>70</v>
       </c>
       <c r="K414" s="72">
-        <v>17.367000000000001</v>
+        <v>17.366999999999997</v>
       </c>
       <c r="L414" s="72">
-        <v>43.001000000000005</v>
+        <v>43.000999999999998</v>
       </c>
       <c r="M414" s="72">
-        <v>25.593</v>
+        <v>25.592999999999996</v>
       </c>
       <c r="N414" s="72">
-        <v>60.368000000000009</v>
+        <v>60.367999999999995</v>
       </c>
     </row>
     <row r="415" spans="1:14" x14ac:dyDescent="0.25">
@@ -25321,7 +25321,7 @@
         <v>33.479999999999997</v>
       </c>
       <c r="M415" s="72">
-        <v>26.888000000000002</v>
+        <v>26.888000000000005</v>
       </c>
       <c r="N415" s="72">
         <v>36.86</v>
@@ -25438,13 +25438,13 @@
         <v>35.895000000000003</v>
       </c>
       <c r="L418" s="72">
-        <v>26.505000000000003</v>
+        <v>26.504999999999995</v>
       </c>
       <c r="M418" s="72">
         <v>2.65</v>
       </c>
       <c r="N418" s="72">
-        <v>62.400000000000006</v>
+        <v>62.4</v>
       </c>
     </row>
     <row r="419" spans="1:14" x14ac:dyDescent="0.25">
@@ -25479,16 +25479,16 @@
         <v>70</v>
       </c>
       <c r="K419" s="72">
-        <v>38.201000000000001</v>
+        <v>38.200999999999993</v>
       </c>
       <c r="L419" s="72">
-        <v>43.731999999999992</v>
+        <v>43.732000000000014</v>
       </c>
       <c r="M419" s="72">
         <v>18.667999999999999</v>
       </c>
       <c r="N419" s="72">
-        <v>81.932999999999993</v>
+        <v>81.933000000000007</v>
       </c>
     </row>
     <row r="420" spans="1:14" x14ac:dyDescent="0.25">
@@ -25523,7 +25523,7 @@
         <v>70</v>
       </c>
       <c r="K420" s="72">
-        <v>141.172</v>
+        <v>141.17200000000003</v>
       </c>
       <c r="L420" s="72">
         <v>53.408999999999992</v>
@@ -25532,7 +25532,7 @@
         <v>28.524000000000001</v>
       </c>
       <c r="N420" s="72">
-        <v>194.58099999999999</v>
+        <v>194.58100000000002</v>
       </c>
     </row>
     <row r="421" spans="1:14" x14ac:dyDescent="0.25">
@@ -25570,13 +25570,13 @@
         <v>77.609999999999985</v>
       </c>
       <c r="L421" s="72">
-        <v>54.329000000000008</v>
+        <v>54.329000000000036</v>
       </c>
       <c r="M421" s="72">
-        <v>140.25199999999998</v>
+        <v>140.25200000000001</v>
       </c>
       <c r="N421" s="72">
-        <v>131.93899999999999</v>
+        <v>131.93900000000002</v>
       </c>
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.25">
@@ -25775,7 +25775,7 @@
         <v>70</v>
       </c>
       <c r="K426" s="72">
-        <v>26.254999999999999</v>
+        <v>26.255000000000003</v>
       </c>
       <c r="L426" s="72">
         <v>0</v>
@@ -25784,7 +25784,7 @@
         <v>0</v>
       </c>
       <c r="N426" s="72">
-        <v>26.254999999999999</v>
+        <v>26.255000000000003</v>
       </c>
     </row>
     <row r="427" spans="1:14" x14ac:dyDescent="0.25">
@@ -25819,10 +25819,10 @@
         <v>70</v>
       </c>
       <c r="K427" s="72">
-        <v>31.63</v>
+        <v>31.630000000000003</v>
       </c>
       <c r="L427" s="72">
-        <v>23.632000000000001</v>
+        <v>23.631999999999998</v>
       </c>
       <c r="M427" s="72">
         <v>2.6229999999999998</v>
@@ -29395,13 +29395,13 @@
         <v>70</v>
       </c>
       <c r="K511" s="72">
-        <v>10.632</v>
+        <v>10.632000000000001</v>
       </c>
       <c r="L511" s="72">
-        <v>8.9779999999999998</v>
+        <v>8.977999999999998</v>
       </c>
       <c r="M511" s="72">
-        <v>28.659000000000002</v>
+        <v>28.658999999999999</v>
       </c>
       <c r="N511" s="72">
         <v>19.61</v>
@@ -29442,13 +29442,13 @@
         <v>3.5169999999999999</v>
       </c>
       <c r="L512" s="72">
-        <v>11.220000000000002</v>
+        <v>11.22</v>
       </c>
       <c r="M512" s="72">
         <v>8.39</v>
       </c>
       <c r="N512" s="72">
-        <v>14.737000000000002</v>
+        <v>14.737</v>
       </c>
     </row>
     <row r="513" spans="1:14" x14ac:dyDescent="0.25">
@@ -29489,7 +29489,7 @@
         <v>10.799999999999999</v>
       </c>
       <c r="M513" s="72">
-        <v>3.9370000000000003</v>
+        <v>3.9369999999999998</v>
       </c>
       <c r="N513" s="72">
         <v>16.177</v>
@@ -30863,7 +30863,7 @@
         <v>70</v>
       </c>
       <c r="K546" s="72">
-        <v>48.49</v>
+        <v>48.489999999999995</v>
       </c>
       <c r="L546" s="72">
         <v>0</v>
@@ -30872,7 +30872,7 @@
         <v>0</v>
       </c>
       <c r="N546" s="72">
-        <v>48.49</v>
+        <v>48.489999999999995</v>
       </c>
     </row>
     <row r="547" spans="1:14" x14ac:dyDescent="0.25">
@@ -30954,13 +30954,13 @@
         <v>6.5049999999999999</v>
       </c>
       <c r="L548" s="72">
-        <v>15.405000000000001</v>
+        <v>15.404999999999998</v>
       </c>
       <c r="M548" s="72">
-        <v>52.075999999999993</v>
+        <v>52.076000000000001</v>
       </c>
       <c r="N548" s="72">
-        <v>21.91</v>
+        <v>21.909999999999997</v>
       </c>
     </row>
     <row r="549" spans="1:14" x14ac:dyDescent="0.25">
@@ -30998,13 +30998,13 @@
         <v>2.4859999999999998</v>
       </c>
       <c r="L549" s="72">
-        <v>7.4250000000000016</v>
+        <v>7.424999999999998</v>
       </c>
       <c r="M549" s="72">
         <v>14.484999999999999</v>
       </c>
       <c r="N549" s="72">
-        <v>9.9110000000000014</v>
+        <v>9.9109999999999978</v>
       </c>
     </row>
     <row r="550" spans="1:14" x14ac:dyDescent="0.25">
@@ -32703,7 +32703,7 @@
         <v>70</v>
       </c>
       <c r="K590" s="72">
-        <v>140.05000000000001</v>
+        <v>140.05000000000004</v>
       </c>
       <c r="L590" s="72">
         <v>0</v>
@@ -32712,7 +32712,7 @@
         <v>0</v>
       </c>
       <c r="N590" s="72">
-        <v>140.05000000000001</v>
+        <v>140.05000000000004</v>
       </c>
     </row>
     <row r="591" spans="1:14" x14ac:dyDescent="0.25">
@@ -32747,16 +32747,16 @@
         <v>70</v>
       </c>
       <c r="K591" s="72">
-        <v>40.385000000000005</v>
+        <v>40.384999999999998</v>
       </c>
       <c r="L591" s="72">
-        <v>73.427000000000007</v>
+        <v>73.426999999999992</v>
       </c>
       <c r="M591" s="72">
-        <v>66.62299999999999</v>
+        <v>66.623000000000005</v>
       </c>
       <c r="N591" s="72">
-        <v>113.81200000000001</v>
+        <v>113.812</v>
       </c>
     </row>
     <row r="592" spans="1:14" x14ac:dyDescent="0.25">
@@ -32797,7 +32797,7 @@
         <v>39.123999999999981</v>
       </c>
       <c r="M592" s="72">
-        <v>74.688000000000017</v>
+        <v>74.688000000000002</v>
       </c>
       <c r="N592" s="72">
         <v>136.36599999999999</v>
@@ -32838,13 +32838,13 @@
         <v>21.786999999999999</v>
       </c>
       <c r="L593" s="72">
-        <v>93.204000000000008</v>
+        <v>93.203999999999979</v>
       </c>
       <c r="M593" s="72">
         <v>43.161999999999999</v>
       </c>
       <c r="N593" s="72">
-        <v>114.991</v>
+        <v>114.99099999999999</v>
       </c>
     </row>
     <row r="594" spans="1:14" x14ac:dyDescent="0.25">
@@ -32882,7 +32882,7 @@
         <v>0</v>
       </c>
       <c r="M594" s="72">
-        <v>114.991</v>
+        <v>114.99099999999999</v>
       </c>
       <c r="N594" s="72">
         <v>0</v>
@@ -32911,7 +32911,7 @@
         <v>70</v>
       </c>
       <c r="K595" s="72">
-        <v>131.11200000000002</v>
+        <v>131.11199999999999</v>
       </c>
       <c r="L595" s="72">
         <v>0</v>
@@ -32920,7 +32920,7 @@
         <v>0</v>
       </c>
       <c r="N595" s="72">
-        <v>131.11200000000002</v>
+        <v>131.11199999999999</v>
       </c>
     </row>
     <row r="596" spans="1:14" x14ac:dyDescent="0.25">
@@ -32961,7 +32961,7 @@
         <v>67.376000000000005</v>
       </c>
       <c r="M596" s="72">
-        <v>63.736000000000004</v>
+        <v>63.735999999999997</v>
       </c>
       <c r="N596" s="72">
         <v>122.06</v>
@@ -33046,13 +33046,13 @@
         <v>3.6869999999999998</v>
       </c>
       <c r="L598" s="72">
-        <v>62.310999999999993</v>
+        <v>62.311000000000021</v>
       </c>
       <c r="M598" s="72">
         <v>31.552</v>
       </c>
       <c r="N598" s="72">
-        <v>65.99799999999999</v>
+        <v>65.998000000000019</v>
       </c>
     </row>
     <row r="599" spans="1:14" x14ac:dyDescent="0.25">
@@ -33090,7 +33090,7 @@
         <v>0</v>
       </c>
       <c r="M599" s="72">
-        <v>65.99799999999999</v>
+        <v>65.998000000000019</v>
       </c>
       <c r="N599" s="72">
         <v>0</v>
@@ -35082,13 +35082,13 @@
         <v>67.88900000000001</v>
       </c>
       <c r="L647" s="72">
-        <v>29.453000000000003</v>
+        <v>29.452999999999989</v>
       </c>
       <c r="M647" s="72">
-        <v>113.254</v>
+        <v>113.25400000000002</v>
       </c>
       <c r="N647" s="72">
-        <v>97.342000000000013</v>
+        <v>97.341999999999999</v>
       </c>
     </row>
     <row r="648" spans="1:14" x14ac:dyDescent="0.25">
@@ -35123,13 +35123,13 @@
         <v>70</v>
       </c>
       <c r="K648" s="72">
-        <v>31.554999999999996</v>
+        <v>31.555</v>
       </c>
       <c r="L648" s="72">
-        <v>69.504000000000005</v>
+        <v>69.503999999999991</v>
       </c>
       <c r="M648" s="72">
-        <v>27.838000000000001</v>
+        <v>27.837999999999997</v>
       </c>
       <c r="N648" s="72">
         <v>101.059</v>
@@ -35293,7 +35293,7 @@
         <v>37.907000000000011</v>
       </c>
       <c r="M652" s="72">
-        <v>161.00099999999998</v>
+        <v>161.00100000000003</v>
       </c>
       <c r="N652" s="72">
         <v>69.056000000000012</v>
@@ -36599,7 +36599,7 @@
         <v>70</v>
       </c>
       <c r="K684" s="72">
-        <v>32.451000000000001</v>
+        <v>32.450999999999993</v>
       </c>
       <c r="L684" s="72">
         <v>0</v>
@@ -36608,7 +36608,7 @@
         <v>0</v>
       </c>
       <c r="N684" s="72">
-        <v>32.451000000000001</v>
+        <v>32.450999999999993</v>
       </c>
     </row>
     <row r="685" spans="1:14" x14ac:dyDescent="0.25">
@@ -37055,7 +37055,7 @@
         <v>70</v>
       </c>
       <c r="K696" s="72">
-        <v>83.193999999999988</v>
+        <v>83.194000000000017</v>
       </c>
       <c r="L696" s="72">
         <v>0</v>
@@ -37064,7 +37064,7 @@
         <v>0</v>
       </c>
       <c r="N696" s="72">
-        <v>83.193999999999988</v>
+        <v>83.194000000000017</v>
       </c>
     </row>
     <row r="697" spans="1:14" x14ac:dyDescent="0.25">
@@ -37102,7 +37102,7 @@
         <v>0</v>
       </c>
       <c r="M697" s="72">
-        <v>83.193999999999988</v>
+        <v>83.194000000000017</v>
       </c>
       <c r="N697" s="72">
         <v>0</v>
@@ -37907,7 +37907,7 @@
         <v>70</v>
       </c>
       <c r="K717" s="72">
-        <v>20.074000000000002</v>
+        <v>20.073999999999998</v>
       </c>
       <c r="L717" s="72">
         <v>41.748000000000005</v>
@@ -39375,7 +39375,7 @@
         <v>70</v>
       </c>
       <c r="K752" s="72">
-        <v>30.422999999999998</v>
+        <v>30.423000000000002</v>
       </c>
       <c r="L752" s="72">
         <v>0</v>
@@ -39384,7 +39384,7 @@
         <v>0</v>
       </c>
       <c r="N752" s="72">
-        <v>30.422999999999998</v>
+        <v>30.423000000000002</v>
       </c>
     </row>
     <row r="753" spans="1:14" x14ac:dyDescent="0.25">
@@ -39422,13 +39422,13 @@
         <v>15.311</v>
       </c>
       <c r="L753" s="72">
-        <v>26.676000000000002</v>
+        <v>26.675999999999995</v>
       </c>
       <c r="M753" s="72">
         <v>3.7469999999999999</v>
       </c>
       <c r="N753" s="72">
-        <v>41.987000000000002</v>
+        <v>41.986999999999995</v>
       </c>
     </row>
     <row r="754" spans="1:14" x14ac:dyDescent="0.25">
@@ -39469,7 +39469,7 @@
         <v>16.256</v>
       </c>
       <c r="M754" s="72">
-        <v>25.731000000000002</v>
+        <v>25.730999999999998</v>
       </c>
       <c r="N754" s="72">
         <v>47.36</v>
@@ -39557,7 +39557,7 @@
         <v>30.47</v>
       </c>
       <c r="M756" s="72">
-        <v>8.4229999999999983</v>
+        <v>8.4230000000000018</v>
       </c>
       <c r="N756" s="72">
         <v>43.887</v>
@@ -40887,7 +40887,7 @@
         <v>70</v>
       </c>
       <c r="K788" s="72">
-        <v>122.16900000000001</v>
+        <v>122.16900000000003</v>
       </c>
       <c r="L788" s="72">
         <v>0</v>
@@ -40896,7 +40896,7 @@
         <v>0</v>
       </c>
       <c r="N788" s="72">
-        <v>122.16900000000001</v>
+        <v>122.16900000000003</v>
       </c>
     </row>
     <row r="789" spans="1:14" x14ac:dyDescent="0.25">
@@ -40934,13 +40934,13 @@
         <v>57.938000000000002</v>
       </c>
       <c r="L789" s="72">
-        <v>118.50000000000001</v>
+        <v>118.50000000000004</v>
       </c>
       <c r="M789" s="72">
         <v>3.6689999999999996</v>
       </c>
       <c r="N789" s="72">
-        <v>176.43800000000002</v>
+        <v>176.43800000000005</v>
       </c>
     </row>
     <row r="790" spans="1:14" x14ac:dyDescent="0.25">
@@ -40981,7 +40981,7 @@
         <v>139.26999999999998</v>
       </c>
       <c r="M790" s="72">
-        <v>37.168000000000006</v>
+        <v>37.167999999999999</v>
       </c>
       <c r="N790" s="72">
         <v>185.43599999999998</v>
@@ -42446,13 +42446,13 @@
         <v>49.430000000000007</v>
       </c>
       <c r="L825" s="72">
-        <v>55.078000000000003</v>
+        <v>55.077999999999989</v>
       </c>
       <c r="M825" s="72">
         <v>6.1719999999999997</v>
       </c>
       <c r="N825" s="72">
-        <v>104.50800000000001</v>
+        <v>104.508</v>
       </c>
     </row>
     <row r="826" spans="1:14" x14ac:dyDescent="0.25">
@@ -42490,13 +42490,13 @@
         <v>75.096000000000004</v>
       </c>
       <c r="L826" s="72">
-        <v>40.660000000000011</v>
+        <v>40.659999999999997</v>
       </c>
       <c r="M826" s="72">
         <v>63.847999999999999</v>
       </c>
       <c r="N826" s="72">
-        <v>115.75600000000001</v>
+        <v>115.756</v>
       </c>
     </row>
     <row r="827" spans="1:14" x14ac:dyDescent="0.25">
@@ -42537,7 +42537,7 @@
         <v>86.884</v>
       </c>
       <c r="M827" s="72">
-        <v>28.871999999999996</v>
+        <v>28.872</v>
       </c>
       <c r="N827" s="72">
         <v>108.363</v>
@@ -42581,7 +42581,7 @@
         <v>84.429000000000002</v>
       </c>
       <c r="M828" s="72">
-        <v>23.933999999999997</v>
+        <v>23.934000000000001</v>
       </c>
       <c r="N828" s="72">
         <v>87.070999999999998</v>
@@ -43958,13 +43958,13 @@
         <v>76.759999999999991</v>
       </c>
       <c r="L861" s="72">
-        <v>116.05200000000005</v>
+        <v>116.05200000000002</v>
       </c>
       <c r="M861" s="72">
         <v>2.2109999999999999</v>
       </c>
       <c r="N861" s="72">
-        <v>192.81200000000004</v>
+        <v>192.81200000000001</v>
       </c>
     </row>
     <row r="862" spans="1:14" x14ac:dyDescent="0.25">
@@ -43999,10 +43999,10 @@
         <v>70</v>
       </c>
       <c r="K862" s="72">
-        <v>85.176999999999992</v>
+        <v>85.177000000000021</v>
       </c>
       <c r="L862" s="72">
-        <v>154.85800000000003</v>
+        <v>154.858</v>
       </c>
       <c r="M862" s="72">
         <v>37.954000000000001</v>
@@ -44043,13 +44043,13 @@
         <v>70</v>
       </c>
       <c r="K863" s="72">
-        <v>57.859000000000002</v>
+        <v>57.858999999999995</v>
       </c>
       <c r="L863" s="72">
-        <v>58.018999999999998</v>
+        <v>58.019000000000005</v>
       </c>
       <c r="M863" s="72">
-        <v>182.01600000000005</v>
+        <v>182.01600000000002</v>
       </c>
       <c r="N863" s="72">
         <v>115.878</v>
@@ -45467,7 +45467,7 @@
         <v>70</v>
       </c>
       <c r="K897" s="72">
-        <v>31.782999999999998</v>
+        <v>31.783000000000001</v>
       </c>
       <c r="L897" s="72">
         <v>109.621</v>
@@ -45511,16 +45511,16 @@
         <v>70</v>
       </c>
       <c r="K898" s="72">
-        <v>81.338000000000008</v>
+        <v>81.337999999999994</v>
       </c>
       <c r="L898" s="72">
         <v>43.596999999999994</v>
       </c>
       <c r="M898" s="72">
-        <v>97.807000000000016</v>
+        <v>97.806999999999988</v>
       </c>
       <c r="N898" s="72">
-        <v>124.935</v>
+        <v>124.93499999999999</v>
       </c>
     </row>
     <row r="899" spans="1:14" x14ac:dyDescent="0.25">
@@ -45561,7 +45561,7 @@
         <v>98.658999999999992</v>
       </c>
       <c r="M899" s="72">
-        <v>26.276000000000003</v>
+        <v>26.276</v>
       </c>
       <c r="N899" s="72">
         <v>129.55799999999999</v>
@@ -45605,7 +45605,7 @@
         <v>85.275000000000006</v>
       </c>
       <c r="M900" s="72">
-        <v>44.282999999999994</v>
+        <v>44.283000000000001</v>
       </c>
       <c r="N900" s="72">
         <v>86.596000000000004</v>
@@ -46935,7 +46935,7 @@
         <v>70</v>
       </c>
       <c r="K932" s="72">
-        <v>49.372000000000007</v>
+        <v>49.372</v>
       </c>
       <c r="L932" s="72">
         <v>0</v>
@@ -46944,7 +46944,7 @@
         <v>0</v>
       </c>
       <c r="N932" s="72">
-        <v>49.372000000000007</v>
+        <v>49.372</v>
       </c>
     </row>
     <row r="933" spans="1:14" x14ac:dyDescent="0.25">
@@ -47029,7 +47029,7 @@
         <v>59.153000000000006</v>
       </c>
       <c r="M934" s="72">
-        <v>14.684999999999999</v>
+        <v>14.685</v>
       </c>
       <c r="N934" s="72">
         <v>104.84800000000001</v>
@@ -47067,16 +47067,16 @@
         <v>70</v>
       </c>
       <c r="K935" s="72">
-        <v>54.415999999999997</v>
+        <v>54.416000000000004</v>
       </c>
       <c r="L935" s="72">
-        <v>45.384</v>
+        <v>45.383999999999979</v>
       </c>
       <c r="M935" s="72">
         <v>59.463999999999999</v>
       </c>
       <c r="N935" s="72">
-        <v>99.8</v>
+        <v>99.799999999999983</v>
       </c>
     </row>
     <row r="936" spans="1:14" x14ac:dyDescent="0.25">
@@ -47111,16 +47111,16 @@
         <v>70</v>
       </c>
       <c r="K936" s="72">
-        <v>13.019</v>
+        <v>13.018999999999998</v>
       </c>
       <c r="L936" s="72">
         <v>81.561000000000007</v>
       </c>
       <c r="M936" s="72">
-        <v>18.238999999999997</v>
+        <v>18.239000000000001</v>
       </c>
       <c r="N936" s="72">
-        <v>94.580000000000013</v>
+        <v>94.58</v>
       </c>
     </row>
     <row r="937" spans="1:14" x14ac:dyDescent="0.25">
@@ -47158,7 +47158,7 @@
         <v>0</v>
       </c>
       <c r="M937" s="72">
-        <v>94.580000000000013</v>
+        <v>94.58</v>
       </c>
       <c r="N937" s="72">
         <v>0</v>
@@ -48535,13 +48535,13 @@
         <v>70</v>
       </c>
       <c r="K970" s="72">
-        <v>16.046999999999997</v>
+        <v>16.047000000000004</v>
       </c>
       <c r="L970" s="72">
-        <v>32.459000000000003</v>
+        <v>32.458999999999996</v>
       </c>
       <c r="M970" s="72">
-        <v>97.806000000000012</v>
+        <v>97.805999999999983</v>
       </c>
       <c r="N970" s="72">
         <v>48.506</v>
@@ -48582,13 +48582,13 @@
         <v>6.125</v>
       </c>
       <c r="L971" s="72">
-        <v>23.993000000000002</v>
+        <v>23.992999999999999</v>
       </c>
       <c r="M971" s="72">
-        <v>24.512999999999998</v>
+        <v>24.513000000000002</v>
       </c>
       <c r="N971" s="72">
-        <v>30.118000000000002</v>
+        <v>30.117999999999999</v>
       </c>
     </row>
     <row r="972" spans="1:14" x14ac:dyDescent="0.25">
@@ -49959,7 +49959,7 @@
         <v>70</v>
       </c>
       <c r="K1004" s="72">
-        <v>108.861</v>
+        <v>108.86099999999999</v>
       </c>
       <c r="L1004" s="72">
         <v>0</v>
@@ -49968,7 +49968,7 @@
         <v>0</v>
       </c>
       <c r="N1004" s="72">
-        <v>108.861</v>
+        <v>108.86099999999999</v>
       </c>
     </row>
     <row r="1005" spans="1:14" x14ac:dyDescent="0.25">
@@ -50003,10 +50003,10 @@
         <v>70</v>
       </c>
       <c r="K1005" s="72">
-        <v>72.021999999999991</v>
+        <v>72.022000000000006</v>
       </c>
       <c r="L1005" s="72">
-        <v>97.887</v>
+        <v>97.886999999999986</v>
       </c>
       <c r="M1005" s="72">
         <v>10.974</v>
@@ -50094,13 +50094,13 @@
         <v>93.227000000000004</v>
       </c>
       <c r="L1007" s="72">
-        <v>27.211000000000013</v>
+        <v>27.210999999999999</v>
       </c>
       <c r="M1007" s="72">
         <v>40.126000000000005</v>
       </c>
       <c r="N1007" s="72">
-        <v>120.43800000000002</v>
+        <v>120.438</v>
       </c>
     </row>
     <row r="1008" spans="1:14" x14ac:dyDescent="0.25">
@@ -50138,13 +50138,13 @@
         <v>15.86</v>
       </c>
       <c r="L1008" s="72">
-        <v>71.068000000000012</v>
+        <v>71.067999999999998</v>
       </c>
       <c r="M1008" s="72">
         <v>49.370000000000005</v>
       </c>
       <c r="N1008" s="72">
-        <v>86.928000000000011</v>
+        <v>86.927999999999997</v>
       </c>
     </row>
     <row r="1009" spans="1:14" x14ac:dyDescent="0.25">
@@ -50182,7 +50182,7 @@
         <v>0</v>
       </c>
       <c r="M1009" s="72">
-        <v>86.928000000000011</v>
+        <v>86.927999999999997</v>
       </c>
       <c r="N1009" s="72">
         <v>0</v>
@@ -51442,7 +51442,7 @@
         <v>0</v>
       </c>
       <c r="M1039" s="72">
-        <v>58.244999999999997</v>
+        <v>58.245000000000005</v>
       </c>
       <c r="N1039" s="72">
         <v>0</v>
@@ -51559,13 +51559,13 @@
         <v>70</v>
       </c>
       <c r="K1042" s="72">
-        <v>86.24799999999999</v>
+        <v>86.248000000000019</v>
       </c>
       <c r="L1042" s="72">
-        <v>21.63300000000001</v>
+        <v>21.632999999999981</v>
       </c>
       <c r="M1042" s="72">
-        <v>141.39299999999997</v>
+        <v>141.39300000000003</v>
       </c>
       <c r="N1042" s="72">
         <v>107.881</v>
@@ -51603,7 +51603,7 @@
         <v>70</v>
       </c>
       <c r="K1043" s="72">
-        <v>23.311000000000003</v>
+        <v>23.311</v>
       </c>
       <c r="L1043" s="72">
         <v>95.206999999999994</v>
@@ -51653,7 +51653,7 @@
         <v>62.195999999999998</v>
       </c>
       <c r="M1044" s="72">
-        <v>56.321999999999989</v>
+        <v>56.322000000000003</v>
       </c>
       <c r="N1044" s="72">
         <v>70.548000000000002</v>
@@ -55230,13 +55230,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="72">
-        <v>258.13925</v>
+        <v>258.13925000000006</v>
       </c>
       <c r="H6" s="72">
         <v>280</v>
       </c>
       <c r="I6" s="76">
-        <v>0.92192589285714288</v>
+        <v>0.9219258928571431</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -55259,13 +55259,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="72">
-        <v>46.930250000000001</v>
+        <v>46.930250000000015</v>
       </c>
       <c r="H7" s="72">
         <v>280</v>
       </c>
       <c r="I7" s="76">
-        <v>0.16760803571428573</v>
+        <v>0.16760803571428576</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -55375,13 +55375,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="72">
-        <v>76.064000000000007</v>
+        <v>76.063999999999993</v>
       </c>
       <c r="H11" s="72">
         <v>350</v>
       </c>
       <c r="I11" s="76">
-        <v>0.21732571428571432</v>
+        <v>0.21732571428571426</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -55491,13 +55491,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="72">
-        <v>103.20675000000001</v>
+        <v>103.20675</v>
       </c>
       <c r="H15" s="72">
         <v>140</v>
       </c>
       <c r="I15" s="76">
-        <v>0.73719107142857154</v>
+        <v>0.73719107142857143</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -55520,13 +55520,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="72">
-        <v>418.61849999999998</v>
+        <v>418.61849999999987</v>
       </c>
       <c r="H16" s="72">
         <v>490</v>
       </c>
       <c r="I16" s="76">
-        <v>0.85432346938775505</v>
+        <v>0.85432346938775483</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -55549,13 +55549,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="72">
-        <v>156.18149999999983</v>
+        <v>156.18150000000003</v>
       </c>
       <c r="H17" s="72">
         <v>490</v>
       </c>
       <c r="I17" s="76">
-        <v>0.31873775510204044</v>
+        <v>0.31873775510204089</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -55578,13 +55578,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="72">
-        <v>40.900000000000006</v>
+        <v>40.9</v>
       </c>
       <c r="H18" s="72">
         <v>70</v>
       </c>
       <c r="I18" s="76">
-        <v>0.58428571428571441</v>
+        <v>0.5842857142857143</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -55607,13 +55607,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="72">
-        <v>50.378000000000014</v>
+        <v>50.378</v>
       </c>
       <c r="H19" s="72">
         <v>70</v>
       </c>
       <c r="I19" s="76">
-        <v>0.71968571428571448</v>
+        <v>0.71968571428571426</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -55926,13 +55926,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="72">
-        <v>131.99100000000004</v>
+        <v>131.99099999999999</v>
       </c>
       <c r="H30" s="72">
         <v>140</v>
       </c>
       <c r="I30" s="76">
-        <v>0.94279285714285743</v>
+        <v>0.94279285714285699</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -55955,13 +55955,13 @@
         <v>0</v>
       </c>
       <c r="G31" s="72">
-        <v>97.026500000000013</v>
+        <v>97.026499999999984</v>
       </c>
       <c r="H31" s="72">
         <v>140</v>
       </c>
       <c r="I31" s="76">
-        <v>0.69304642857142862</v>
+        <v>0.69304642857142851</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -56042,13 +56042,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="72">
-        <v>554.0927499999998</v>
+        <v>554.09274999999968</v>
       </c>
       <c r="H34" s="72">
         <v>560</v>
       </c>
       <c r="I34" s="76">
-        <v>0.98945133928571394</v>
+        <v>0.98945133928571372</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -56071,13 +56071,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="72">
-        <v>239.85999999999993</v>
+        <v>239.85999999999999</v>
       </c>
       <c r="H35" s="72">
         <v>560</v>
       </c>
       <c r="I35" s="76">
-        <v>0.42832142857142846</v>
+        <v>0.42832142857142852</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -56158,13 +56158,13 @@
         <v>0</v>
       </c>
       <c r="G38" s="72">
-        <v>131.14750000000006</v>
+        <v>131.14750000000001</v>
       </c>
       <c r="H38" s="72">
         <v>140</v>
       </c>
       <c r="I38" s="76">
-        <v>0.9367678571428576</v>
+        <v>0.93676785714285715</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -56187,13 +56187,13 @@
         <v>0</v>
       </c>
       <c r="G39" s="72">
-        <v>92.429999999999978</v>
+        <v>92.43</v>
       </c>
       <c r="H39" s="72">
         <v>140</v>
       </c>
       <c r="I39" s="76">
-        <v>0.66021428571428553</v>
+        <v>0.66021428571428575</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -56216,13 +56216,13 @@
         <v>0</v>
       </c>
       <c r="G40" s="72">
-        <v>59.180750000000018</v>
+        <v>59.18075000000001</v>
       </c>
       <c r="H40" s="72">
         <v>70</v>
       </c>
       <c r="I40" s="76">
-        <v>0.84543928571428595</v>
+        <v>0.84543928571428584</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -56245,13 +56245,13 @@
         <v>0</v>
       </c>
       <c r="G41" s="72">
-        <v>43.743500000000012</v>
+        <v>43.74349999999999</v>
       </c>
       <c r="H41" s="72">
         <v>70</v>
       </c>
       <c r="I41" s="76">
-        <v>0.62490714285714299</v>
+        <v>0.62490714285714277</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -56274,13 +56274,13 @@
         <v>0</v>
       </c>
       <c r="G42" s="72">
-        <v>184.8075</v>
+        <v>184.80749999999998</v>
       </c>
       <c r="H42" s="72">
         <v>210</v>
       </c>
       <c r="I42" s="76">
-        <v>0.88003571428571425</v>
+        <v>0.88003571428571414</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -56303,7 +56303,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="72">
-        <v>120.65875</v>
+        <v>120.65874999999998</v>
       </c>
       <c r="H43" s="72">
         <v>210</v>
@@ -56332,13 +56332,13 @@
         <v>0</v>
       </c>
       <c r="G44" s="72">
-        <v>42.273750000000007</v>
+        <v>42.27375</v>
       </c>
       <c r="H44" s="72">
         <v>70</v>
       </c>
       <c r="I44" s="76">
-        <v>0.60391071428571441</v>
+        <v>0.6039107142857143</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -56361,13 +56361,13 @@
         <v>0</v>
       </c>
       <c r="G45" s="72">
-        <v>62.991</v>
+        <v>62.990999999999993</v>
       </c>
       <c r="H45" s="72">
         <v>70</v>
       </c>
       <c r="I45" s="76">
-        <v>0.89987142857142854</v>
+        <v>0.89987142857142843</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -56390,13 +56390,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="72">
-        <v>346.18174999999974</v>
+        <v>346.18174999999979</v>
       </c>
       <c r="H46" s="72">
         <v>350</v>
       </c>
       <c r="I46" s="76">
-        <v>0.98909071428571349</v>
+        <v>0.98909071428571371</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -56419,13 +56419,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="72">
-        <v>263.30374999999987</v>
+        <v>263.30374999999998</v>
       </c>
       <c r="H47" s="72">
         <v>350</v>
       </c>
       <c r="I47" s="76">
-        <v>0.7522964285714282</v>
+        <v>0.75229642857142853</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -56506,13 +56506,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="72">
-        <v>225.6422500000001</v>
+        <v>225.6422499999999</v>
       </c>
       <c r="H50" s="72">
         <v>350</v>
       </c>
       <c r="I50" s="76">
-        <v>0.64469214285714316</v>
+        <v>0.6446921428571426</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -56564,13 +56564,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="72">
-        <v>419.13125000000002</v>
+        <v>419.13124999999962</v>
       </c>
       <c r="H52" s="72">
         <v>560</v>
       </c>
       <c r="I52" s="76">
-        <v>0.74844866071428573</v>
+        <v>0.74844866071428506</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -56593,13 +56593,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="72">
-        <v>510.09799999999984</v>
+        <v>510.09799999999967</v>
       </c>
       <c r="H53" s="72">
         <v>560</v>
       </c>
       <c r="I53" s="76">
-        <v>0.9108892857142854</v>
+        <v>0.91088928571428518</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -56622,7 +56622,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="72">
-        <v>85.91425000000001</v>
+        <v>85.914249999999996</v>
       </c>
       <c r="H54" s="72">
         <v>140</v>
@@ -56651,13 +56651,13 @@
         <v>0</v>
       </c>
       <c r="G55" s="72">
-        <v>120.77799999999999</v>
+        <v>120.77800000000001</v>
       </c>
       <c r="H55" s="72">
         <v>140</v>
       </c>
       <c r="I55" s="76">
-        <v>0.86269999999999991</v>
+        <v>0.86270000000000002</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -56912,13 +56912,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="72">
-        <v>135.86599999999999</v>
+        <v>135.86600000000001</v>
       </c>
       <c r="H64" s="72">
         <v>140</v>
       </c>
       <c r="I64" s="76">
-        <v>0.97047142857142843</v>
+        <v>0.97047142857142865</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -56941,13 +56941,13 @@
         <v>0</v>
       </c>
       <c r="G65" s="72">
-        <v>92.640750000000011</v>
+        <v>92.640749999999969</v>
       </c>
       <c r="H65" s="72">
         <v>140</v>
       </c>
       <c r="I65" s="76">
-        <v>0.66171964285714291</v>
+        <v>0.66171964285714269</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -57028,13 +57028,13 @@
         <v>0</v>
       </c>
       <c r="G68" s="72">
-        <v>128.22174999999999</v>
+        <v>128.22175000000004</v>
       </c>
       <c r="H68" s="72">
         <v>210</v>
       </c>
       <c r="I68" s="76">
-        <v>0.61057976190476182</v>
+        <v>0.61057976190476215</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -57057,13 +57057,13 @@
         <v>0</v>
       </c>
       <c r="G69" s="72">
-        <v>166.96600000000001</v>
+        <v>166.96599999999995</v>
       </c>
       <c r="H69" s="72">
         <v>210</v>
       </c>
       <c r="I69" s="76">
-        <v>0.79507619047619049</v>
+        <v>0.79507619047619027</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -57086,13 +57086,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="72">
-        <v>263.18924999999996</v>
+        <v>263.1892499999999</v>
       </c>
       <c r="H70" s="72">
         <v>350</v>
       </c>
       <c r="I70" s="76">
-        <v>0.75196928571428556</v>
+        <v>0.75196928571428545</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -57115,7 +57115,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="72">
-        <v>219.71574999999996</v>
+        <v>219.71574999999999</v>
       </c>
       <c r="H71" s="72">
         <v>350</v>
@@ -57144,13 +57144,13 @@
         <v>0</v>
       </c>
       <c r="G72" s="72">
-        <v>45.395249999999997</v>
+        <v>45.39524999999999</v>
       </c>
       <c r="H72" s="72">
         <v>70</v>
       </c>
       <c r="I72" s="76">
-        <v>0.6485035714285714</v>
+        <v>0.64850357142857129</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -57173,13 +57173,13 @@
         <v>0</v>
       </c>
       <c r="G73" s="72">
-        <v>56.678000000000011</v>
+        <v>56.678000000000004</v>
       </c>
       <c r="H73" s="72">
         <v>70</v>
       </c>
       <c r="I73" s="76">
-        <v>0.80968571428571445</v>
+        <v>0.80968571428571434</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -57318,13 +57318,13 @@
         <v>0</v>
       </c>
       <c r="G78" s="72">
-        <v>54.47775</v>
+        <v>54.477750000000007</v>
       </c>
       <c r="H78" s="72">
         <v>70</v>
       </c>
       <c r="I78" s="76">
-        <v>0.77825357142857143</v>
+        <v>0.77825357142857154</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -57347,13 +57347,13 @@
         <v>0</v>
       </c>
       <c r="G79" s="72">
-        <v>35.889999999999993</v>
+        <v>35.89</v>
       </c>
       <c r="H79" s="72">
         <v>70</v>
       </c>
       <c r="I79" s="76">
-        <v>0.51271428571428557</v>
+        <v>0.51271428571428568</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -57376,13 +57376,13 @@
         <v>0</v>
       </c>
       <c r="G80" s="72">
-        <v>110.01474999999999</v>
+        <v>110.01474999999998</v>
       </c>
       <c r="H80" s="72">
         <v>140</v>
       </c>
       <c r="I80" s="76">
-        <v>0.78581964285714279</v>
+        <v>0.78581964285714268</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -57405,13 +57405,13 @@
         <v>0</v>
       </c>
       <c r="G81" s="72">
-        <v>71.546749999999989</v>
+        <v>71.546750000000046</v>
       </c>
       <c r="H81" s="72">
         <v>140</v>
       </c>
       <c r="I81" s="76">
-        <v>0.51104821428571423</v>
+        <v>0.51104821428571456</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -57434,13 +57434,13 @@
         <v>0</v>
       </c>
       <c r="G82" s="72">
-        <v>192.11724999999993</v>
+        <v>192.11724999999998</v>
       </c>
       <c r="H82" s="72">
         <v>210</v>
       </c>
       <c r="I82" s="76">
-        <v>0.91484404761904725</v>
+        <v>0.91484404761904758</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -57463,13 +57463,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="72">
-        <v>86.186750000000004</v>
+        <v>86.186749999999989</v>
       </c>
       <c r="H83" s="72">
         <v>210</v>
       </c>
       <c r="I83" s="76">
-        <v>0.41041309523809527</v>
+        <v>0.41041309523809516</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -57492,13 +57492,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="72">
-        <v>168.25124999999997</v>
+        <v>168.25125</v>
       </c>
       <c r="H84" s="72">
         <v>210</v>
       </c>
       <c r="I84" s="76">
-        <v>0.80119642857142848</v>
+        <v>0.80119642857142859</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -57521,13 +57521,13 @@
         <v>0</v>
       </c>
       <c r="G85" s="72">
-        <v>40.551999999999957</v>
+        <v>40.551999999999992</v>
       </c>
       <c r="H85" s="72">
         <v>210</v>
       </c>
       <c r="I85" s="76">
-        <v>0.1931047619047617</v>
+        <v>0.19310476190476186</v>
       </c>
     </row>
   </sheetData>
